--- a/durham_VOC_positivity.xlsx
+++ b/durham_VOC_positivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0689719-34C1-5043-A466-C8D3A3FDC11B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA8F503-1B5A-EA4A-90E9-CD75709E1FF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
+    <workbookView xWindow="-36920" yWindow="-500" windowWidth="33600" windowHeight="19620" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Ajax</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>NUMBER**</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>20 days</t>
   </si>
 </sst>
 </file>
@@ -436,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD76F85-D46A-004E-8298-45C4EF23387B}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,564 +495,558 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44281</v>
+        <v>44283</v>
       </c>
       <c r="B2" s="5">
-        <v>9.8799999999999999E-2</v>
+        <v>0.1013</v>
       </c>
       <c r="C2" s="5">
-        <v>0.14710000000000001</v>
+        <v>0.1618</v>
       </c>
       <c r="D2" s="5">
-        <v>7.0900000000000005E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="E2" s="5">
-        <v>8.4900000000000003E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="F2" s="5">
-        <v>7.5499999999999998E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="G2" s="5">
-        <v>3.3700000000000001E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H2" s="5">
-        <v>5.62E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="I2" s="5">
-        <v>6.8199999999999997E-2</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="J2" s="2">
-        <v>44281</v>
+        <v>44283</v>
       </c>
       <c r="K2" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44280</v>
+        <v>44282</v>
       </c>
       <c r="B3" s="5">
-        <v>9.5500000000000002E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="C3" s="5">
-        <v>0.14929999999999999</v>
+        <v>0.1618</v>
       </c>
       <c r="D3" s="5">
-        <v>6.9400000000000003E-2</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="E3" s="5">
-        <v>8.2600000000000007E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="F3" s="5">
-        <v>7.3300000000000004E-2</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="G3" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H3" s="5">
-        <v>5.62E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="I3" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>44280</v>
+        <v>44282</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K26" si="0">K4+1</f>
-        <v>26</v>
-      </c>
-      <c r="M3" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f>A3-1</f>
-        <v>44279</v>
+        <v>44281</v>
       </c>
       <c r="B4" s="5">
-        <v>8.9700000000000002E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>0.11940000000000001</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="D4" s="5">
-        <v>6.5100000000000005E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="E4" s="5">
-        <v>7.4899999999999994E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="F4" s="5">
-        <v>6.8099999999999994E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="G4" s="5">
-        <v>2.9100000000000001E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="H4" s="5">
-        <v>5.2600000000000001E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>6.0400000000000002E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="J4" s="2">
-        <f>J3-1</f>
-        <v>44279</v>
+        <v>44281</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="M4" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A28" si="1">A4-1</f>
-        <v>44278</v>
+        <v>44280</v>
       </c>
       <c r="B5" s="5">
-        <v>8.72E-2</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="C5" s="5">
-        <v>0.1045</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="D5" s="5">
-        <v>6.3399999999999998E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>6.9699999999999998E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="F5" s="5">
-        <v>6.6100000000000006E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>2.93E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H5" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>5.9200000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J28" si="2">J4-1</f>
-        <v>44278</v>
+        <v>44280</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" ref="K5:K28" si="0">K6+1</f>
+        <v>26</v>
       </c>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
-        <v>44277</v>
+        <f>A5-1</f>
+        <v>44279</v>
       </c>
       <c r="B6" s="5">
-        <v>8.5999999999999993E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="C6" s="5">
-        <v>0.1077</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="D6" s="5">
-        <v>6.2899999999999998E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>6.7000000000000004E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="F6" s="5">
-        <v>6.54E-2</v>
+        <v>6.8099999999999994E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>2.93E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="I6" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
-        <v>44277</v>
+        <f>J5-1</f>
+        <v>44279</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
-        <v>44276</v>
+        <f t="shared" ref="A7:A30" si="1">A6-1</f>
+        <v>44278</v>
       </c>
       <c r="B7" s="5">
-        <v>6.9599999999999995E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.1061</v>
+        <v>0.1045</v>
       </c>
       <c r="D7" s="5">
-        <v>5.5300000000000002E-2</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>5.4100000000000002E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="F7" s="5">
-        <v>5.3800000000000001E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>1.95E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H7" s="5">
-        <v>3.4099999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I7" s="5">
-        <v>4.9799999999999997E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
-        <v>44276</v>
+        <f t="shared" ref="J7:J30" si="2">J6-1</f>
+        <v>44278</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
-        <v>44275</v>
+        <v>44277</v>
       </c>
       <c r="B8" s="5">
-        <v>6.6400000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C8" s="5">
-        <v>0.1061</v>
+        <v>0.1077</v>
       </c>
       <c r="D8" s="5">
-        <v>5.5599999999999997E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>5.33E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F8" s="5">
-        <v>5.3199999999999997E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>1.95E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H8" s="5">
-        <v>3.4200000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I8" s="5">
-        <v>4.9200000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>44275</v>
+        <v>44277</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>44274</v>
+        <v>44276</v>
       </c>
       <c r="B9" s="5">
-        <v>6.3799999999999996E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="C9" s="5">
-        <v>9.2299999999999993E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D9" s="5">
-        <v>5.16E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>4.82E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="F9" s="5">
-        <v>4.7899999999999998E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="G9" s="5">
         <v>1.95E-2</v>
       </c>
       <c r="H9" s="5">
-        <v>3.09E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="I9" s="5">
-        <v>4.6800000000000001E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>44274</v>
+        <v>44276</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>44273</v>
+        <v>44275</v>
       </c>
       <c r="B10" s="5">
-        <v>5.7700000000000001E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="C10" s="5">
-        <v>7.9399999999999998E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D10" s="5">
-        <v>4.8899999999999999E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>4.5600000000000002E-2</v>
+        <v>5.33E-2</v>
       </c>
       <c r="F10" s="5">
-        <v>4.4900000000000002E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>1.49E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H10" s="5">
-        <v>2.7199999999999998E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="I10" s="5">
-        <v>4.3700000000000003E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>44273</v>
+        <v>44275</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="B11" s="5">
-        <v>5.4399999999999997E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="C11" s="5">
-        <v>6.5600000000000006E-2</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="D11" s="5">
-        <v>4.1099999999999998E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>4.3499999999999997E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="F11" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="G11" s="5">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H11" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="I11" s="5">
-        <v>3.9399999999999998E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>44271</v>
+        <v>44273</v>
       </c>
       <c r="B12" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>6.5600000000000006E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>3.8199999999999998E-2</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>4.2099999999999999E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="F12" s="5">
-        <v>3.7400000000000003E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="G12" s="5">
-        <v>0.01</v>
+        <v>1.49E-2</v>
       </c>
       <c r="H12" s="5">
-        <v>1.5699999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="I12" s="5">
-        <v>3.8699999999999998E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>44271</v>
+        <v>44273</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B13" s="5">
-        <v>4.9299999999999997E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="C13" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>3.7400000000000003E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>4.0300000000000002E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F13" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G13" s="5">
         <v>0.01</v>
       </c>
       <c r="H13" s="5">
-        <v>1.5800000000000002E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="I13" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>44269</v>
+        <v>44271</v>
       </c>
       <c r="B14" s="5">
-        <v>4.58E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C14" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D14" s="5">
-        <v>3.3300000000000003E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>3.7600000000000001E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="F14" s="5">
-        <v>3.09E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="G14" s="5">
         <v>0.01</v>
       </c>
       <c r="H14" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="I14" s="5">
-        <v>3.4700000000000002E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>44269</v>
+        <v>44271</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>44268</v>
+        <v>44270</v>
       </c>
       <c r="B15" s="5">
-        <v>4.2900000000000001E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="C15" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D15" s="5">
-        <v>3.2399999999999998E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>3.6200000000000003E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="F15" s="5">
-        <v>2.8500000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G15" s="5">
         <v>0.01</v>
       </c>
       <c r="H15" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="I15" s="5">
-        <v>3.2500000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>44268</v>
+        <v>44270</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
-        <v>44267</v>
+        <v>44269</v>
       </c>
       <c r="B16" s="5">
-        <v>4.2099999999999999E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="C16" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>3.1300000000000001E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>3.6299999999999999E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="F16" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G16" s="5">
         <v>0.01</v>
@@ -1052,37 +1055,37 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I16" s="5">
-        <v>3.0700000000000002E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>44267</v>
+        <v>44269</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
-        <v>44266</v>
+        <v>44268</v>
       </c>
       <c r="B17" s="5">
-        <v>3.8899999999999997E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="C17" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D17" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>3.44E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="F17" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="G17" s="5">
         <v>0.01</v>
@@ -1091,37 +1094,37 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I17" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>44266</v>
+        <v>44268</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B18" s="5">
-        <v>3.5400000000000001E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="C18" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D18" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="F18" s="5">
-        <v>2.4799999999999999E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G18" s="5">
         <v>0.01</v>
@@ -1130,76 +1133,76 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I18" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="B19" s="5">
-        <v>3.4500000000000003E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="C19" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>2.5100000000000001E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>3.09E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="F19" s="5">
-        <v>2.3699999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G19" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H19" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I19" s="5">
-        <v>2.76E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>44263</v>
+        <v>44265</v>
       </c>
       <c r="B20" s="5">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E20" s="5">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="C20" s="5">
-        <v>3.39E-2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>2.9399999999999999E-2</v>
-      </c>
       <c r="F20" s="5">
-        <v>2.3E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="G20" s="5">
         <v>0.01</v>
@@ -1208,37 +1211,37 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I20" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>44263</v>
+        <v>44265</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
-        <v>44262</v>
+        <v>44264</v>
       </c>
       <c r="B21" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="C21" s="5">
-        <v>1.6899999999999998E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D21" s="5">
-        <v>1.8800000000000001E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>2.6599999999999999E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="F21" s="5">
-        <v>2.1499999999999998E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="G21" s="5">
         <v>1.01E-2</v>
@@ -1247,290 +1250,391 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I21" s="5">
-        <v>2.4400000000000002E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>44262</v>
+        <v>44264</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B22" s="5">
-        <v>2.81E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C22" s="5">
-        <v>1.72E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>1.77E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>2.2700000000000001E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F22" s="5">
-        <v>2.0199999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G22" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H22" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I22" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>44260</v>
+        <v>44262</v>
       </c>
       <c r="B23" s="5">
-        <v>2.6700000000000002E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="C23" s="5">
-        <v>1.7899999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D23" s="5">
-        <v>1.5599999999999999E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E23" s="5">
-        <v>0.02</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="F23" s="5">
-        <v>1.9800000000000002E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="G23" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H23" s="5">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I23" s="5">
-        <v>2.1899999999999999E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>44260</v>
+        <v>44262</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>44259</v>
+        <v>44261</v>
       </c>
       <c r="B24" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>0</v>
+        <v>1.72E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>1.5599999999999999E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="F24" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G24" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H24" s="5">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I24" s="5">
-        <v>1.95E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>44259</v>
+        <v>44261</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>44258</v>
+        <v>44260</v>
       </c>
       <c r="B25" s="5">
-        <v>2.35E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="C25" s="5">
-        <v>0</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>1.23E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>1.7600000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F25" s="5">
-        <v>1.47E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="G25" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H25" s="5">
-        <v>1.61E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I25" s="5">
-        <v>1.72E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>44258</v>
+        <v>44260</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
-        <v>44257</v>
+        <v>44259</v>
       </c>
       <c r="B26" s="5">
-        <v>2.24E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
       </c>
       <c r="D26" s="5">
-        <v>1.1299999999999999E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>1.6500000000000001E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="F26" s="5">
-        <v>1.2800000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G26" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H26" s="5">
-        <v>1.61E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I26" s="5">
-        <v>1.72E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>44257</v>
+        <v>44259</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B27" s="5">
-        <v>2.07E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
       </c>
       <c r="D27" s="5">
-        <v>1.12E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E27" s="5">
-        <v>1.52E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="F27" s="5">
-        <v>1.17E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="G27" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H27" s="5">
-        <v>8.0999999999999996E-3</v>
+        <v>1.61E-2</v>
       </c>
       <c r="I27" s="5">
-        <v>1.6799999999999999E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="K27" s="2">
-        <f>K28+1</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>44255</v>
+        <v>44257</v>
       </c>
       <c r="B28" s="5">
-        <v>2.0400000000000001E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
       </c>
       <c r="D28" s="5">
-        <v>1.14E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E28" s="5">
-        <v>1.49E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="F28" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="G28" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H28" s="5">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1.72E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="2"/>
+        <v>44257</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>44256</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2.07E-2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.52E-2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.17E-2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="2"/>
+        <v>44256</v>
+      </c>
+      <c r="K29" s="2">
+        <f>K30+1</f>
+        <v>2</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>44255</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H30" s="5">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I30" s="5">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J30" s="2">
         <f t="shared" si="2"/>
         <v>44255</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K30" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M28" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="36" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="2">
+        <f>J4+10</f>
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="38" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="2">
+        <f>J4+20</f>
+        <v>44301</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/durham_VOC_positivity.xlsx
+++ b/durham_VOC_positivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA8F503-1B5A-EA4A-90E9-CD75709E1FF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7782201-9A51-2840-8CCC-608ABA9D7625}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36920" yWindow="-500" windowWidth="33600" windowHeight="19620" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
   </bookViews>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD76F85-D46A-004E-8298-45C4EF23387B}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,246 +495,243 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B2" s="5">
-        <v>0.1013</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="C2" s="5">
         <v>0.1618</v>
       </c>
       <c r="D2" s="5">
-        <v>7.4200000000000002E-2</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="E2" s="5">
-        <v>8.8200000000000001E-2</v>
+        <v>0.115</v>
       </c>
       <c r="F2" s="5">
-        <v>7.8899999999999998E-2</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="G2" s="5">
-        <v>3.7900000000000003E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="H2" s="5">
-        <v>5.9299999999999999E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="I2" s="5">
-        <v>7.0699999999999999E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="J2" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="K2" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B3" s="5">
-        <v>9.7500000000000003E-2</v>
+        <v>0.1013</v>
       </c>
       <c r="C3" s="5">
         <v>0.1618</v>
       </c>
       <c r="D3" s="5">
-        <v>7.0099999999999996E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="E3" s="5">
-        <v>8.6699999999999999E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="F3" s="5">
-        <v>7.3800000000000004E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="G3" s="5">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H3" s="5">
-        <v>5.5599999999999997E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="I3" s="5">
-        <v>6.6100000000000006E-2</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="K3" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B4" s="5">
-        <v>9.8799999999999999E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>0.14710000000000001</v>
+        <v>0.1618</v>
       </c>
       <c r="D4" s="5">
-        <v>7.0900000000000005E-2</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="E4" s="5">
-        <v>8.4900000000000003E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="F4" s="5">
-        <v>7.5499999999999998E-2</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="G4" s="5">
-        <v>3.3700000000000001E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H4" s="5">
-        <v>5.62E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>6.8199999999999997E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="K4" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B5" s="5">
-        <v>9.5500000000000002E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="C5" s="5">
-        <v>0.14929999999999999</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="D5" s="5">
-        <v>6.9400000000000003E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>8.2600000000000007E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="F5" s="5">
-        <v>7.3300000000000004E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="H5" s="5">
         <v>5.62E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K28" si="0">K6+1</f>
-        <v>26</v>
-      </c>
-      <c r="M5" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f>A5-1</f>
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B6" s="5">
-        <v>8.9700000000000002E-2</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="C6" s="5">
-        <v>0.11940000000000001</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="D6" s="5">
-        <v>6.5100000000000005E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>7.4899999999999994E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="F6" s="5">
-        <v>6.8099999999999994E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>2.9100000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>5.2600000000000001E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I6" s="5">
-        <v>6.0400000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J6" s="2">
-        <f>J5-1</f>
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" ref="K6:K29" si="0">K7+1</f>
+        <v>26</v>
       </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f t="shared" ref="A7:A30" si="1">A6-1</f>
-        <v>44278</v>
+        <f>A6-1</f>
+        <v>44279</v>
       </c>
       <c r="B7" s="5">
-        <v>8.72E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.1045</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="D7" s="5">
-        <v>6.3399999999999998E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>6.9699999999999998E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="F7" s="5">
-        <v>6.6100000000000006E-2</v>
+        <v>6.8099999999999994E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>2.93E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="H7" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="I7" s="5">
-        <v>5.9200000000000003E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J30" si="2">J6-1</f>
-        <v>44278</v>
+        <f>J6-1</f>
+        <v>44279</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>44277</v>
+        <f t="shared" ref="A8:A31" si="1">A7-1</f>
+        <v>44278</v>
       </c>
       <c r="B8" s="5">
-        <v>8.5999999999999993E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="C8" s="5">
-        <v>0.1077</v>
+        <v>0.1045</v>
       </c>
       <c r="D8" s="5">
-        <v>6.2899999999999998E-2</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>6.7000000000000004E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="F8" s="5">
-        <v>6.54E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="G8" s="5">
         <v>2.93E-2</v>
@@ -743,349 +740,349 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="I8" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
-        <v>44277</v>
+        <f t="shared" ref="J8:J31" si="2">J7-1</f>
+        <v>44278</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B9" s="5">
-        <v>6.9599999999999995E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C9" s="5">
-        <v>0.1061</v>
+        <v>0.1077</v>
       </c>
       <c r="D9" s="5">
-        <v>5.5300000000000002E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>5.4100000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F9" s="5">
-        <v>5.3800000000000001E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>1.95E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H9" s="5">
-        <v>3.4099999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I9" s="5">
-        <v>4.9799999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B10" s="5">
-        <v>6.6400000000000001E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="C10" s="5">
         <v>0.1061</v>
       </c>
       <c r="D10" s="5">
-        <v>5.5599999999999997E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>5.33E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="F10" s="5">
-        <v>5.3199999999999997E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="G10" s="5">
         <v>1.95E-2</v>
       </c>
       <c r="H10" s="5">
-        <v>3.4200000000000001E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="I10" s="5">
-        <v>4.9200000000000001E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B11" s="5">
-        <v>6.3799999999999996E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="C11" s="5">
-        <v>9.2299999999999993E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D11" s="5">
-        <v>5.16E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>4.82E-2</v>
+        <v>5.33E-2</v>
       </c>
       <c r="F11" s="5">
-        <v>4.7899999999999998E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="G11" s="5">
         <v>1.95E-2</v>
       </c>
       <c r="H11" s="5">
-        <v>3.09E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="I11" s="5">
-        <v>4.6800000000000001E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B12" s="5">
-        <v>5.7700000000000001E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>7.9399999999999998E-2</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>4.8899999999999999E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>4.5600000000000002E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="F12" s="5">
-        <v>4.4900000000000002E-2</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="G12" s="5">
-        <v>1.49E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H12" s="5">
-        <v>2.7199999999999998E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="I12" s="5">
-        <v>4.3700000000000003E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B13" s="5">
-        <v>5.4399999999999997E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="C13" s="5">
-        <v>6.5600000000000006E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>4.1099999999999998E-2</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>4.3499999999999997E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="F13" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="G13" s="5">
-        <v>0.01</v>
+        <v>1.49E-2</v>
       </c>
       <c r="H13" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="I13" s="5">
-        <v>3.9399999999999998E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B14" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="C14" s="5">
         <v>6.5600000000000006E-2</v>
       </c>
       <c r="D14" s="5">
-        <v>3.8199999999999998E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>4.2099999999999999E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F14" s="5">
-        <v>3.7400000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G14" s="5">
         <v>0.01</v>
       </c>
       <c r="H14" s="5">
-        <v>1.5699999999999999E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="I14" s="5">
-        <v>3.8699999999999998E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B15" s="5">
-        <v>4.9299999999999997E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C15" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D15" s="5">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F15" s="5">
         <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G15" s="5">
         <v>0.01</v>
       </c>
       <c r="H15" s="5">
-        <v>1.5800000000000002E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="I15" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B16" s="5">
-        <v>4.58E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="C16" s="5">
         <v>6.6699999999999995E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>3.3300000000000003E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>3.7600000000000001E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="F16" s="5">
-        <v>3.09E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G16" s="5">
         <v>0.01</v>
       </c>
       <c r="H16" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="I16" s="5">
-        <v>3.4700000000000002E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B17" s="5">
-        <v>4.2900000000000001E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="C17" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D17" s="5">
-        <v>3.2399999999999998E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>3.6200000000000003E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="F17" s="5">
-        <v>2.8500000000000001E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G17" s="5">
         <v>0.01</v>
@@ -1094,37 +1091,37 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I17" s="5">
-        <v>3.2500000000000001E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B18" s="5">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="C18" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D18" s="5">
-        <v>3.1300000000000001E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>3.6299999999999999E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="F18" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="G18" s="5">
         <v>0.01</v>
@@ -1133,37 +1130,37 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I18" s="5">
-        <v>3.0700000000000002E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B19" s="5">
-        <v>3.8899999999999997E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="C19" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>3.44E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="F19" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G19" s="5">
         <v>0.01</v>
@@ -1172,37 +1169,37 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I19" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B20" s="5">
-        <v>3.5400000000000001E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="C20" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D20" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="E20" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="F20" s="5">
-        <v>2.4799999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G20" s="5">
         <v>0.01</v>
@@ -1211,232 +1208,232 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I20" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B21" s="5">
-        <v>3.4500000000000003E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="C21" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D21" s="5">
-        <v>2.5100000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>3.09E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F21" s="5">
-        <v>2.3699999999999999E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="G21" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H21" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I21" s="5">
-        <v>2.76E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B22" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="C22" s="5">
-        <v>3.39E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>1.9699999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="F22" s="5">
-        <v>2.3E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="G22" s="5">
-        <v>0.01</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H22" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I22" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B23" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C23" s="5">
-        <v>1.6899999999999998E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="D23" s="5">
-        <v>1.8800000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="E23" s="5">
-        <v>2.6599999999999999E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F23" s="5">
-        <v>2.1499999999999998E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G23" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H23" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I23" s="5">
-        <v>2.4400000000000002E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B24" s="5">
-        <v>2.81E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>1.72E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>1.77E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>2.2700000000000001E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="F24" s="5">
-        <v>2.0199999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="G24" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H24" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I24" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B25" s="5">
-        <v>2.6700000000000002E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="C25" s="5">
-        <v>1.7899999999999999E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>1.5599999999999999E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>0.02</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="F25" s="5">
-        <v>1.9800000000000002E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G25" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H25" s="5">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I25" s="5">
-        <v>2.1899999999999999E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B26" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="C26" s="5">
-        <v>0</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="D26" s="5">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F26" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="G26" s="5">
         <v>1.0200000000000001E-2</v>
@@ -1445,76 +1442,76 @@
         <v>1.6E-2</v>
       </c>
       <c r="I26" s="5">
-        <v>1.95E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B27" s="5">
-        <v>2.35E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
       </c>
       <c r="D27" s="5">
-        <v>1.23E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E27" s="5">
-        <v>1.7600000000000001E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="F27" s="5">
-        <v>1.47E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G27" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H27" s="5">
-        <v>1.61E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I27" s="5">
-        <v>1.72E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B28" s="5">
-        <v>2.24E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
       </c>
       <c r="D28" s="5">
-        <v>1.1299999999999999E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E28" s="5">
-        <v>1.6500000000000001E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="F28" s="5">
-        <v>1.2800000000000001E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="G28" s="5">
         <v>1.0200000000000001E-2</v>
@@ -1527,112 +1524,151 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="2"/>
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B29" s="5">
-        <v>2.07E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
       </c>
       <c r="D29" s="5">
-        <v>1.12E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E29" s="5">
-        <v>1.52E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="F29" s="5">
-        <v>1.17E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="G29" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H29" s="5">
-        <v>8.0999999999999996E-3</v>
+        <v>1.61E-2</v>
       </c>
       <c r="I29" s="5">
-        <v>1.6799999999999999E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="2"/>
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="K29" s="2">
-        <f>K30+1</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B30" s="5">
-        <v>2.0400000000000001E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
       </c>
       <c r="D30" s="5">
-        <v>1.14E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>1.49E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="F30" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="G30" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H30" s="5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="2"/>
+        <v>44256</v>
+      </c>
+      <c r="K30" s="2">
+        <f>K31+1</f>
+        <v>2</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>44255</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H31" s="5">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I31" s="5">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J31" s="2">
         <f t="shared" si="2"/>
         <v>44255</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K31" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="L36" t="s">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="37" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="2">
-        <f>J4+10</f>
-        <v>44291</v>
       </c>
     </row>
     <row r="38" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="2">
+        <f>J5+10</f>
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="39" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="2">
-        <f>J4+20</f>
+      <c r="K39" s="2">
+        <f>J5+20</f>
         <v>44301</v>
       </c>
     </row>

--- a/durham_VOC_positivity.xlsx
+++ b/durham_VOC_positivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7782201-9A51-2840-8CCC-608ABA9D7625}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0B5126-34CB-EA4E-BEEE-810CA2217986}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36920" yWindow="-500" windowWidth="33600" windowHeight="19620" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD76F85-D46A-004E-8298-45C4EF23387B}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,282 +495,279 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B2" s="5">
-        <v>0.12959999999999999</v>
+        <v>0.13980000000000001</v>
       </c>
       <c r="C2" s="5">
-        <v>0.1618</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="D2" s="5">
-        <v>9.9299999999999999E-2</v>
+        <v>0.1091</v>
       </c>
       <c r="E2" s="5">
-        <v>0.115</v>
+        <v>0.1207</v>
       </c>
       <c r="F2" s="5">
-        <v>9.9099999999999994E-2</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="G2" s="5">
-        <v>5.6599999999999998E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H2" s="5">
-        <v>5.8200000000000002E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="I2" s="5">
-        <v>8.9200000000000002E-2</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="J2" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="K2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B3" s="5">
-        <v>0.1013</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="C3" s="5">
         <v>0.1618</v>
       </c>
       <c r="D3" s="5">
-        <v>7.4200000000000002E-2</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="E3" s="5">
-        <v>8.8200000000000001E-2</v>
+        <v>0.115</v>
       </c>
       <c r="F3" s="5">
-        <v>7.8899999999999998E-2</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="G3" s="5">
-        <v>3.7900000000000003E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="H3" s="5">
-        <v>5.9299999999999999E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="I3" s="5">
-        <v>7.0699999999999999E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="K3" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B4" s="5">
-        <v>9.7500000000000003E-2</v>
+        <v>0.1013</v>
       </c>
       <c r="C4" s="5">
         <v>0.1618</v>
       </c>
       <c r="D4" s="5">
-        <v>7.0099999999999996E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="E4" s="5">
-        <v>8.6699999999999999E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="F4" s="5">
-        <v>7.3800000000000004E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="G4" s="5">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H4" s="5">
-        <v>5.5599999999999997E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>6.6100000000000006E-2</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="K4" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B5" s="5">
-        <v>9.8799999999999999E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="C5" s="5">
-        <v>0.14710000000000001</v>
+        <v>0.1618</v>
       </c>
       <c r="D5" s="5">
-        <v>7.0900000000000005E-2</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>8.4900000000000003E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="F5" s="5">
-        <v>7.5499999999999998E-2</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>3.3700000000000001E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H5" s="5">
-        <v>5.62E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>6.8199999999999997E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="K5" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B6" s="5">
-        <v>9.5500000000000002E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="C6" s="5">
-        <v>0.14929999999999999</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="D6" s="5">
-        <v>6.9400000000000003E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>8.2600000000000007E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="F6" s="5">
-        <v>7.3300000000000004E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="H6" s="5">
         <v>5.62E-2</v>
       </c>
       <c r="I6" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="J6" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:K29" si="0">K7+1</f>
-        <v>26</v>
-      </c>
-      <c r="M6" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f>A6-1</f>
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B7" s="5">
-        <v>8.9700000000000002E-2</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.11940000000000001</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="D7" s="5">
-        <v>6.5100000000000005E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>7.4899999999999994E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="F7" s="5">
-        <v>6.8099999999999994E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>2.9100000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H7" s="5">
-        <v>5.2600000000000001E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I7" s="5">
-        <v>6.0400000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J7" s="2">
-        <f>J6-1</f>
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" ref="K7:K30" si="0">K8+1</f>
+        <v>26</v>
       </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A31" si="1">A7-1</f>
-        <v>44278</v>
+        <f>A7-1</f>
+        <v>44279</v>
       </c>
       <c r="B8" s="5">
-        <v>8.72E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="C8" s="5">
-        <v>0.1045</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="D8" s="5">
-        <v>6.3399999999999998E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>6.9699999999999998E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="F8" s="5">
-        <v>6.6100000000000006E-2</v>
+        <v>6.8099999999999994E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>2.93E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="H8" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="I8" s="5">
-        <v>5.9200000000000003E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8:J31" si="2">J7-1</f>
-        <v>44278</v>
+        <f>J7-1</f>
+        <v>44279</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
-        <v>44277</v>
+        <f t="shared" ref="A9:A32" si="1">A8-1</f>
+        <v>44278</v>
       </c>
       <c r="B9" s="5">
-        <v>8.5999999999999993E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="C9" s="5">
-        <v>0.1077</v>
+        <v>0.1045</v>
       </c>
       <c r="D9" s="5">
-        <v>6.2899999999999998E-2</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>6.7000000000000004E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="F9" s="5">
-        <v>6.54E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="G9" s="5">
         <v>2.93E-2</v>
@@ -779,349 +776,349 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="I9" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
-        <v>44277</v>
+        <f t="shared" ref="J9:J32" si="2">J8-1</f>
+        <v>44278</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B10" s="5">
-        <v>6.9599999999999995E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C10" s="5">
-        <v>0.1061</v>
+        <v>0.1077</v>
       </c>
       <c r="D10" s="5">
-        <v>5.5300000000000002E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>5.4100000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F10" s="5">
-        <v>5.3800000000000001E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>1.95E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H10" s="5">
-        <v>3.4099999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I10" s="5">
-        <v>4.9799999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B11" s="5">
-        <v>6.6400000000000001E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="C11" s="5">
         <v>0.1061</v>
       </c>
       <c r="D11" s="5">
-        <v>5.5599999999999997E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>5.33E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="F11" s="5">
-        <v>5.3199999999999997E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="G11" s="5">
         <v>1.95E-2</v>
       </c>
       <c r="H11" s="5">
-        <v>3.4200000000000001E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="I11" s="5">
-        <v>4.9200000000000001E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B12" s="5">
-        <v>6.3799999999999996E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>9.2299999999999993E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D12" s="5">
-        <v>5.16E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>4.82E-2</v>
+        <v>5.33E-2</v>
       </c>
       <c r="F12" s="5">
-        <v>4.7899999999999998E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="G12" s="5">
         <v>1.95E-2</v>
       </c>
       <c r="H12" s="5">
-        <v>3.09E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="I12" s="5">
-        <v>4.6800000000000001E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B13" s="5">
-        <v>5.7700000000000001E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="C13" s="5">
-        <v>7.9399999999999998E-2</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>4.8899999999999999E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>4.5600000000000002E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="F13" s="5">
-        <v>4.4900000000000002E-2</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="G13" s="5">
-        <v>1.49E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H13" s="5">
-        <v>2.7199999999999998E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="I13" s="5">
-        <v>4.3700000000000003E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B14" s="5">
-        <v>5.4399999999999997E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="C14" s="5">
-        <v>6.5600000000000006E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="D14" s="5">
-        <v>4.1099999999999998E-2</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>4.3499999999999997E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="F14" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>0.01</v>
+        <v>1.49E-2</v>
       </c>
       <c r="H14" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="I14" s="5">
-        <v>3.9399999999999998E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B15" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="C15" s="5">
         <v>6.5600000000000006E-2</v>
       </c>
       <c r="D15" s="5">
-        <v>3.8199999999999998E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>4.2099999999999999E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F15" s="5">
-        <v>3.7400000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G15" s="5">
         <v>0.01</v>
       </c>
       <c r="H15" s="5">
-        <v>1.5699999999999999E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="I15" s="5">
-        <v>3.8699999999999998E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B16" s="5">
-        <v>4.9299999999999997E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C16" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D16" s="5">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F16" s="5">
         <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G16" s="5">
         <v>0.01</v>
       </c>
       <c r="H16" s="5">
-        <v>1.5800000000000002E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="I16" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B17" s="5">
-        <v>4.58E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="C17" s="5">
         <v>6.6699999999999995E-2</v>
       </c>
       <c r="D17" s="5">
-        <v>3.3300000000000003E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>3.7600000000000001E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="F17" s="5">
-        <v>3.09E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G17" s="5">
         <v>0.01</v>
       </c>
       <c r="H17" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="I17" s="5">
-        <v>3.4700000000000002E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B18" s="5">
-        <v>4.2900000000000001E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="C18" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D18" s="5">
-        <v>3.2399999999999998E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>3.6200000000000003E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="F18" s="5">
-        <v>2.8500000000000001E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G18" s="5">
         <v>0.01</v>
@@ -1130,37 +1127,37 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I18" s="5">
-        <v>3.2500000000000001E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B19" s="5">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="C19" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>3.1300000000000001E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>3.6299999999999999E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="F19" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="G19" s="5">
         <v>0.01</v>
@@ -1169,37 +1166,37 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I19" s="5">
-        <v>3.0700000000000002E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B20" s="5">
-        <v>3.8899999999999997E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="C20" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D20" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="E20" s="5">
-        <v>3.44E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="F20" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G20" s="5">
         <v>0.01</v>
@@ -1208,37 +1205,37 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I20" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B21" s="5">
-        <v>3.5400000000000001E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="C21" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D21" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="F21" s="5">
-        <v>2.4799999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G21" s="5">
         <v>0.01</v>
@@ -1247,232 +1244,232 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I21" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B22" s="5">
-        <v>3.4500000000000003E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="C22" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>2.5100000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>3.09E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F22" s="5">
-        <v>2.3699999999999999E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="G22" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H22" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I22" s="5">
-        <v>2.76E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B23" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="C23" s="5">
-        <v>3.39E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D23" s="5">
-        <v>1.9699999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="E23" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="F23" s="5">
-        <v>2.3E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="G23" s="5">
-        <v>0.01</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H23" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I23" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B24" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>1.6899999999999998E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>1.8800000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>2.6599999999999999E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F24" s="5">
-        <v>2.1499999999999998E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G24" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H24" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I24" s="5">
-        <v>2.4400000000000002E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B25" s="5">
-        <v>2.81E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="C25" s="5">
-        <v>1.72E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>1.77E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>2.2700000000000001E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="F25" s="5">
-        <v>2.0199999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="G25" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H25" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I25" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B26" s="5">
-        <v>2.6700000000000002E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="C26" s="5">
-        <v>1.7899999999999999E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="D26" s="5">
-        <v>1.5599999999999999E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>0.02</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="F26" s="5">
-        <v>1.9800000000000002E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G26" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H26" s="5">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I26" s="5">
-        <v>2.1899999999999999E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B27" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="C27" s="5">
-        <v>0</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="D27" s="5">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="E27" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F27" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="G27" s="5">
         <v>1.0200000000000001E-2</v>
@@ -1481,76 +1478,76 @@
         <v>1.6E-2</v>
       </c>
       <c r="I27" s="5">
-        <v>1.95E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B28" s="5">
-        <v>2.35E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
       </c>
       <c r="D28" s="5">
-        <v>1.23E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E28" s="5">
-        <v>1.7600000000000001E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="F28" s="5">
-        <v>1.47E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G28" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H28" s="5">
-        <v>1.61E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I28" s="5">
-        <v>1.72E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="2"/>
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B29" s="5">
-        <v>2.24E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
       </c>
       <c r="D29" s="5">
-        <v>1.1299999999999999E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E29" s="5">
-        <v>1.6500000000000001E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="F29" s="5">
-        <v>1.2800000000000001E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="G29" s="5">
         <v>1.0200000000000001E-2</v>
@@ -1563,112 +1560,151 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="2"/>
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B30" s="5">
-        <v>2.07E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
       </c>
       <c r="D30" s="5">
-        <v>1.12E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>1.52E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="F30" s="5">
-        <v>1.17E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="G30" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H30" s="5">
-        <v>8.0999999999999996E-3</v>
+        <v>1.61E-2</v>
       </c>
       <c r="I30" s="5">
-        <v>1.6799999999999999E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="2"/>
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="K30" s="2">
-        <f>K31+1</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B31" s="5">
-        <v>2.0400000000000001E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
       </c>
       <c r="D31" s="5">
-        <v>1.14E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="E31" s="5">
-        <v>1.49E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="F31" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="G31" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H31" s="5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="2"/>
+        <v>44256</v>
+      </c>
+      <c r="K31" s="2">
+        <f>K32+1</f>
+        <v>2</v>
+      </c>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>44255</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H32" s="5">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I32" s="5">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J32" s="2">
         <f t="shared" si="2"/>
         <v>44255</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K32" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="L37" t="s">
+      <c r="M32" s="4"/>
+    </row>
+    <row r="38" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="2">
-        <f>J5+10</f>
-        <v>44291</v>
       </c>
     </row>
     <row r="39" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="2">
+        <f>J6+10</f>
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="2">
-        <f>J5+20</f>
+      <c r="K40" s="2">
+        <f>J6+20</f>
         <v>44301</v>
       </c>
     </row>

--- a/durham_VOC_positivity.xlsx
+++ b/durham_VOC_positivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0B5126-34CB-EA4E-BEEE-810CA2217986}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD377BDB-0739-9D4D-AE7E-2D203A282534}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
   </bookViews>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD76F85-D46A-004E-8298-45C4EF23387B}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,747 +495,744 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44285</v>
+        <f>A3+1</f>
+        <v>44288</v>
       </c>
       <c r="B2" s="5">
-        <v>0.13980000000000001</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="C2" s="5">
-        <v>0.17649999999999999</v>
+        <v>0.1714</v>
       </c>
       <c r="D2" s="5">
-        <v>0.1091</v>
+        <v>0.1196</v>
       </c>
       <c r="E2" s="5">
-        <v>0.1207</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F2" s="5">
-        <v>0.11020000000000001</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="G2" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="H2" s="5">
-        <v>6.8599999999999994E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="I2" s="5">
-        <v>9.4100000000000003E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="J2" s="2">
-        <v>44285</v>
+        <v>44288</v>
       </c>
       <c r="K2" s="2">
-        <v>31</v>
+        <f t="shared" ref="K2:K3" si="0">K3+1</f>
+        <v>34</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44284</v>
+        <f>A4+1</f>
+        <v>44287</v>
       </c>
       <c r="B3" s="5">
-        <v>0.12959999999999999</v>
+        <v>0.1414</v>
       </c>
       <c r="C3" s="5">
-        <v>0.1618</v>
+        <v>0.1714</v>
       </c>
       <c r="D3" s="5">
-        <v>9.9299999999999999E-2</v>
+        <v>0.1113</v>
       </c>
       <c r="E3" s="5">
-        <v>0.115</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="F3" s="5">
-        <v>9.9099999999999994E-2</v>
+        <v>0.1124</v>
       </c>
       <c r="G3" s="5">
-        <v>5.6599999999999998E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="H3" s="5">
-        <v>5.8200000000000002E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="I3" s="5">
-        <v>8.9200000000000002E-2</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>44284</v>
+        <v>44287</v>
       </c>
       <c r="K3" s="2">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44283</v>
+        <f>A5+1</f>
+        <v>44286</v>
       </c>
       <c r="B4" s="5">
-        <v>0.1013</v>
+        <v>0.1416</v>
       </c>
       <c r="C4" s="5">
-        <v>0.1618</v>
+        <v>0.1739</v>
       </c>
       <c r="D4" s="5">
-        <v>7.4200000000000002E-2</v>
+        <v>0.1104</v>
       </c>
       <c r="E4" s="5">
-        <v>8.8200000000000001E-2</v>
+        <v>0.1227</v>
       </c>
       <c r="F4" s="5">
-        <v>7.8899999999999998E-2</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="G4" s="5">
-        <v>3.7900000000000003E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="H4" s="5">
-        <v>5.9299999999999999E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>7.0699999999999999E-2</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>44283</v>
+        <v>44286</v>
       </c>
       <c r="K4" s="2">
-        <v>29</v>
+        <f>K5+1</f>
+        <v>32</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44282</v>
+        <v>44285</v>
       </c>
       <c r="B5" s="5">
-        <v>9.7500000000000003E-2</v>
+        <v>0.13980000000000001</v>
       </c>
       <c r="C5" s="5">
-        <v>0.1618</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="D5" s="5">
-        <v>7.0099999999999996E-2</v>
+        <v>0.1091</v>
       </c>
       <c r="E5" s="5">
-        <v>8.6699999999999999E-2</v>
+        <v>0.1207</v>
       </c>
       <c r="F5" s="5">
-        <v>7.3800000000000004E-2</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="G5" s="5">
-        <v>3.7900000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H5" s="5">
-        <v>5.5599999999999997E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>6.6100000000000006E-2</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>44282</v>
+        <v>44285</v>
       </c>
       <c r="K5" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44281</v>
+        <v>44284</v>
       </c>
       <c r="B6" s="5">
-        <v>9.8799999999999999E-2</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="C6" s="5">
-        <v>0.14710000000000001</v>
+        <v>0.1618</v>
       </c>
       <c r="D6" s="5">
-        <v>7.0900000000000005E-2</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>8.4900000000000003E-2</v>
+        <v>0.115</v>
       </c>
       <c r="F6" s="5">
-        <v>7.5499999999999998E-2</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>3.3700000000000001E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>5.62E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="I6" s="5">
-        <v>6.8199999999999997E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="J6" s="2">
-        <v>44281</v>
+        <v>44284</v>
       </c>
       <c r="K6" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44280</v>
+        <v>44283</v>
       </c>
       <c r="B7" s="5">
-        <v>9.5500000000000002E-2</v>
+        <v>0.1013</v>
       </c>
       <c r="C7" s="5">
-        <v>0.14929999999999999</v>
+        <v>0.1618</v>
       </c>
       <c r="D7" s="5">
-        <v>6.9400000000000003E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>8.2600000000000007E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="F7" s="5">
-        <v>7.3300000000000004E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H7" s="5">
-        <v>5.62E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="I7" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>44280</v>
+        <v>44283</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ref="K7:K30" si="0">K8+1</f>
-        <v>26</v>
-      </c>
-      <c r="M7" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>A7-1</f>
-        <v>44279</v>
+        <v>44282</v>
       </c>
       <c r="B8" s="5">
-        <v>8.9700000000000002E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="C8" s="5">
-        <v>0.11940000000000001</v>
+        <v>0.1618</v>
       </c>
       <c r="D8" s="5">
-        <v>6.5100000000000005E-2</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>7.4899999999999994E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="F8" s="5">
-        <v>6.8099999999999994E-2</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>2.9100000000000001E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H8" s="5">
-        <v>5.2600000000000001E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="I8" s="5">
-        <v>6.0400000000000002E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="J8" s="2">
-        <f>J7-1</f>
-        <v>44279</v>
+        <v>44282</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="M8" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:A32" si="1">A8-1</f>
-        <v>44278</v>
+        <v>44281</v>
       </c>
       <c r="B9" s="5">
-        <v>8.72E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="C9" s="5">
-        <v>0.1045</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="D9" s="5">
-        <v>6.3399999999999998E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>6.9699999999999998E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="F9" s="5">
-        <v>6.6100000000000006E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>2.93E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="H9" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I9" s="5">
-        <v>5.9200000000000003E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ref="J9:J32" si="2">J8-1</f>
-        <v>44278</v>
+        <v>44281</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="M9" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>44277</v>
+        <v>44280</v>
       </c>
       <c r="B10" s="5">
-        <v>8.5999999999999993E-2</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="C10" s="5">
-        <v>0.1077</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="D10" s="5">
-        <v>6.2899999999999998E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>6.7000000000000004E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="F10" s="5">
-        <v>6.54E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>2.93E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H10" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I10" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>44277</v>
+        <v>44280</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" ref="K10:K33" si="1">K11+1</f>
+        <v>26</v>
       </c>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>44276</v>
+        <f>A10-1</f>
+        <v>44279</v>
       </c>
       <c r="B11" s="5">
-        <v>6.9599999999999995E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.1061</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="D11" s="5">
-        <v>5.5300000000000002E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>5.4100000000000002E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="F11" s="5">
-        <v>5.3800000000000001E-2</v>
+        <v>6.8099999999999994E-2</v>
       </c>
       <c r="G11" s="5">
-        <v>1.95E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="H11" s="5">
-        <v>3.4099999999999998E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="I11" s="5">
-        <v>4.9799999999999997E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
-        <v>44276</v>
+        <f>J10-1</f>
+        <v>44279</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>44275</v>
+        <f t="shared" ref="A12:A35" si="2">A11-1</f>
+        <v>44278</v>
       </c>
       <c r="B12" s="5">
-        <v>6.6400000000000001E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.1061</v>
+        <v>0.1045</v>
       </c>
       <c r="D12" s="5">
-        <v>5.5599999999999997E-2</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>5.33E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="F12" s="5">
-        <v>5.3199999999999997E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="G12" s="5">
-        <v>1.95E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H12" s="5">
-        <v>3.4200000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I12" s="5">
-        <v>4.9200000000000001E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
-        <v>44275</v>
+        <f t="shared" ref="J12:J35" si="3">J11-1</f>
+        <v>44278</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>44274</v>
+        <f t="shared" si="2"/>
+        <v>44277</v>
       </c>
       <c r="B13" s="5">
-        <v>6.3799999999999996E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C13" s="5">
-        <v>9.2299999999999993E-2</v>
+        <v>0.1077</v>
       </c>
       <c r="D13" s="5">
-        <v>5.16E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>4.82E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F13" s="5">
-        <v>4.7899999999999998E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="G13" s="5">
-        <v>1.95E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H13" s="5">
-        <v>3.09E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I13" s="5">
-        <v>4.6800000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
-        <v>44274</v>
+        <f t="shared" si="3"/>
+        <v>44277</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>44273</v>
+        <f t="shared" si="2"/>
+        <v>44276</v>
       </c>
       <c r="B14" s="5">
-        <v>5.7700000000000001E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="C14" s="5">
-        <v>7.9399999999999998E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D14" s="5">
-        <v>4.8899999999999999E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>4.5600000000000002E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="F14" s="5">
-        <v>4.4900000000000002E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>1.49E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H14" s="5">
-        <v>2.7199999999999998E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="I14" s="5">
-        <v>4.3700000000000003E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
-        <v>44273</v>
+        <f t="shared" si="3"/>
+        <v>44276</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>44272</v>
+        <f t="shared" si="2"/>
+        <v>44275</v>
       </c>
       <c r="B15" s="5">
-        <v>5.4399999999999997E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="C15" s="5">
-        <v>6.5600000000000006E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D15" s="5">
-        <v>4.1099999999999998E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>4.3499999999999997E-2</v>
+        <v>5.33E-2</v>
       </c>
       <c r="F15" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="G15" s="5">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H15" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="I15" s="5">
-        <v>3.9399999999999998E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
-        <v>44272</v>
+        <f t="shared" si="3"/>
+        <v>44275</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>44271</v>
+        <f t="shared" si="2"/>
+        <v>44274</v>
       </c>
       <c r="B16" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="C16" s="5">
-        <v>6.5600000000000006E-2</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>3.8199999999999998E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>4.2099999999999999E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="F16" s="5">
-        <v>3.7400000000000003E-2</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="G16" s="5">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H16" s="5">
-        <v>1.5699999999999999E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="I16" s="5">
-        <v>3.8699999999999998E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
-        <v>44271</v>
+        <f t="shared" si="3"/>
+        <v>44274</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>44270</v>
+        <f t="shared" si="2"/>
+        <v>44273</v>
       </c>
       <c r="B17" s="5">
-        <v>4.9299999999999997E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="C17" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="D17" s="5">
-        <v>3.7400000000000003E-2</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>4.0300000000000002E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="F17" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="G17" s="5">
-        <v>0.01</v>
+        <v>1.49E-2</v>
       </c>
       <c r="H17" s="5">
-        <v>1.5800000000000002E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="I17" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
-        <v>44270</v>
+        <f t="shared" si="3"/>
+        <v>44273</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>44269</v>
+        <f t="shared" si="2"/>
+        <v>44272</v>
       </c>
       <c r="B18" s="5">
-        <v>4.58E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="C18" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D18" s="5">
-        <v>3.3300000000000003E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>3.7600000000000001E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F18" s="5">
-        <v>3.09E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G18" s="5">
         <v>0.01</v>
       </c>
       <c r="H18" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="I18" s="5">
-        <v>3.4700000000000002E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
-        <v>44269</v>
+        <f t="shared" si="3"/>
+        <v>44272</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>44268</v>
+        <f t="shared" si="2"/>
+        <v>44271</v>
       </c>
       <c r="B19" s="5">
-        <v>4.2900000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C19" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>3.2399999999999998E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>3.6200000000000003E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="F19" s="5">
-        <v>2.8500000000000001E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="G19" s="5">
         <v>0.01</v>
       </c>
       <c r="H19" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="I19" s="5">
-        <v>3.2500000000000001E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
-        <v>44268</v>
+        <f t="shared" si="3"/>
+        <v>44271</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>44267</v>
+        <f t="shared" si="2"/>
+        <v>44270</v>
       </c>
       <c r="B20" s="5">
-        <v>4.2099999999999999E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="C20" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D20" s="5">
-        <v>3.1300000000000001E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="E20" s="5">
-        <v>3.6299999999999999E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="F20" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G20" s="5">
         <v>0.01</v>
       </c>
       <c r="H20" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="I20" s="5">
-        <v>3.0700000000000002E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
-        <v>44267</v>
+        <f t="shared" si="3"/>
+        <v>44270</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>44266</v>
+        <f t="shared" si="2"/>
+        <v>44269</v>
       </c>
       <c r="B21" s="5">
-        <v>3.8899999999999997E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="C21" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D21" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>3.44E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="F21" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G21" s="5">
         <v>0.01</v>
@@ -1244,37 +1241,37 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I21" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
-        <v>44266</v>
+        <f t="shared" si="3"/>
+        <v>44269</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>44265</v>
+        <f t="shared" si="2"/>
+        <v>44268</v>
       </c>
       <c r="B22" s="5">
-        <v>3.5400000000000001E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="C22" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="F22" s="5">
-        <v>2.4799999999999999E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="G22" s="5">
         <v>0.01</v>
@@ -1283,76 +1280,76 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I22" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
-        <v>44265</v>
+        <f t="shared" si="3"/>
+        <v>44268</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
-        <v>44264</v>
+        <f t="shared" si="2"/>
+        <v>44267</v>
       </c>
       <c r="B23" s="5">
-        <v>3.4500000000000003E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="C23" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D23" s="5">
-        <v>2.5100000000000001E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="E23" s="5">
-        <v>3.09E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="F23" s="5">
-        <v>2.3699999999999999E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G23" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H23" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I23" s="5">
-        <v>2.76E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
-        <v>44264</v>
+        <f t="shared" si="3"/>
+        <v>44267</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>44263</v>
+        <f t="shared" si="2"/>
+        <v>44266</v>
       </c>
       <c r="B24" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>3.39E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>1.9699999999999999E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="F24" s="5">
-        <v>2.3E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G24" s="5">
         <v>0.01</v>
@@ -1361,350 +1358,467 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I24" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
-        <v>44263</v>
+        <f t="shared" si="3"/>
+        <v>44266</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <f t="shared" si="1"/>
-        <v>44262</v>
+        <f t="shared" si="2"/>
+        <v>44265</v>
       </c>
       <c r="B25" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="C25" s="5">
-        <v>1.6899999999999998E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>1.8800000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>2.6599999999999999E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F25" s="5">
-        <v>2.1499999999999998E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="G25" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H25" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I25" s="5">
-        <v>2.4400000000000002E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
-        <v>44262</v>
+        <f t="shared" si="3"/>
+        <v>44265</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f t="shared" si="1"/>
-        <v>44261</v>
+        <f t="shared" si="2"/>
+        <v>44264</v>
       </c>
       <c r="B26" s="5">
-        <v>2.81E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="C26" s="5">
-        <v>1.72E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D26" s="5">
-        <v>1.77E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>2.2700000000000001E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="F26" s="5">
-        <v>2.0199999999999999E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="G26" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H26" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I26" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
-        <v>44261</v>
+        <f t="shared" si="3"/>
+        <v>44264</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <f t="shared" si="1"/>
-        <v>44260</v>
+        <f t="shared" si="2"/>
+        <v>44263</v>
       </c>
       <c r="B27" s="5">
-        <v>2.6700000000000002E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C27" s="5">
-        <v>1.7899999999999999E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="D27" s="5">
-        <v>1.5599999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="E27" s="5">
-        <v>0.02</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F27" s="5">
-        <v>1.9800000000000002E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G27" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H27" s="5">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I27" s="5">
-        <v>2.1899999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
-        <v>44260</v>
+        <f t="shared" si="3"/>
+        <v>44263</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <f t="shared" si="1"/>
-        <v>44259</v>
+        <f t="shared" si="2"/>
+        <v>44262</v>
       </c>
       <c r="B28" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="C28" s="5">
-        <v>0</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D28" s="5">
-        <v>1.5599999999999999E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E28" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="F28" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="G28" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H28" s="5">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I28" s="5">
-        <v>1.95E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
-        <v>44259</v>
+        <f t="shared" si="3"/>
+        <v>44262</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <f t="shared" si="1"/>
-        <v>44258</v>
+        <f t="shared" si="2"/>
+        <v>44261</v>
       </c>
       <c r="B29" s="5">
-        <v>2.35E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="C29" s="5">
-        <v>0</v>
+        <v>1.72E-2</v>
       </c>
       <c r="D29" s="5">
-        <v>1.23E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="E29" s="5">
-        <v>1.7600000000000001E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="F29" s="5">
-        <v>1.47E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G29" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H29" s="5">
-        <v>1.61E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I29" s="5">
-        <v>1.72E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
-        <v>44258</v>
+        <f t="shared" si="3"/>
+        <v>44261</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <f t="shared" si="1"/>
-        <v>44257</v>
+        <f t="shared" si="2"/>
+        <v>44260</v>
       </c>
       <c r="B30" s="5">
-        <v>2.24E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="C30" s="5">
-        <v>0</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="D30" s="5">
-        <v>1.1299999999999999E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>1.6500000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F30" s="5">
-        <v>1.2800000000000001E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="G30" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H30" s="5">
-        <v>1.61E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I30" s="5">
-        <v>1.72E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
-        <v>44257</v>
+        <f t="shared" si="3"/>
+        <v>44260</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <f t="shared" si="1"/>
-        <v>44256</v>
+        <f t="shared" si="2"/>
+        <v>44259</v>
       </c>
       <c r="B31" s="5">
-        <v>2.07E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
       </c>
       <c r="D31" s="5">
-        <v>1.12E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E31" s="5">
-        <v>1.52E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="F31" s="5">
-        <v>1.17E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G31" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H31" s="5">
-        <v>8.0999999999999996E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I31" s="5">
-        <v>1.6799999999999999E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
-        <v>44256</v>
+        <f t="shared" si="3"/>
+        <v>44259</v>
       </c>
       <c r="K31" s="2">
-        <f>K32+1</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <f t="shared" si="1"/>
-        <v>44255</v>
+        <f t="shared" si="2"/>
+        <v>44258</v>
       </c>
       <c r="B32" s="5">
-        <v>2.0400000000000001E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
       </c>
       <c r="D32" s="5">
-        <v>1.14E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E32" s="5">
-        <v>1.49E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="F32" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="G32" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H32" s="5">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1.72E-2</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="3"/>
+        <v>44258</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="2"/>
+        <v>44257</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2.24E-2</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1.72E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="3"/>
+        <v>44257</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="2"/>
+        <v>44256</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2.07E-2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.52E-2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1.17E-2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H34" s="5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="3"/>
+        <v>44256</v>
+      </c>
+      <c r="K34" s="2">
+        <f>K35+1</f>
+        <v>2</v>
+      </c>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="2"/>
+        <v>44255</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H35" s="5">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I35" s="5">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" si="2"/>
+      <c r="J35" s="2">
+        <f t="shared" si="3"/>
         <v>44255</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K35" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="L38" t="s">
+      <c r="M35" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J39" s="2" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="2">
-        <f>J6+10</f>
+      <c r="K42" s="2">
+        <f>J9+10</f>
         <v>44291</v>
       </c>
     </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J40" s="2" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="2">
-        <f>J6+20</f>
+      <c r="K43" s="2">
+        <f>J9+20</f>
         <v>44301</v>
       </c>
     </row>

--- a/durham_VOC_positivity.xlsx
+++ b/durham_VOC_positivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD377BDB-0739-9D4D-AE7E-2D203A282534}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D4405-52C3-5E4A-AFD7-9EE8BE1F32C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
   </bookViews>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD76F85-D46A-004E-8298-45C4EF23387B}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,900 +495,900 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <f>A3+1</f>
-        <v>44288</v>
+        <f t="shared" ref="A2:A5" si="0">A3+1</f>
+        <v>44292</v>
       </c>
       <c r="B2" s="5">
-        <v>0.14549999999999999</v>
+        <v>0.1726</v>
       </c>
       <c r="C2" s="5">
-        <v>0.1714</v>
+        <v>0.17810000000000001</v>
       </c>
       <c r="D2" s="5">
-        <v>0.1196</v>
+        <v>0.1429</v>
       </c>
       <c r="E2" s="5">
-        <v>0.13300000000000001</v>
+        <v>0.15260000000000001</v>
       </c>
       <c r="F2" s="5">
-        <v>0.11849999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="G2" s="5">
-        <v>6.5799999999999997E-2</v>
+        <v>9.3200000000000005E-2</v>
       </c>
       <c r="H2" s="5">
-        <v>7.1900000000000006E-2</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="I2" s="5">
-        <v>0.1011</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="J2" s="2">
-        <v>44288</v>
+        <f t="shared" ref="J2:J4" si="1">(J3+1)</f>
+        <v>44292</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K3" si="0">K3+1</f>
-        <v>34</v>
+        <f t="shared" ref="K2:K4" si="2">(K3)+1</f>
+        <v>38</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <f>A4+1</f>
-        <v>44287</v>
+        <f t="shared" si="0"/>
+        <v>44291</v>
       </c>
       <c r="B3" s="5">
-        <v>0.1414</v>
+        <v>0.17249999999999999</v>
       </c>
       <c r="C3" s="5">
-        <v>0.1714</v>
+        <v>0.18310000000000001</v>
       </c>
       <c r="D3" s="5">
-        <v>0.1113</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E3" s="5">
-        <v>0.12590000000000001</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="F3" s="5">
-        <v>0.1124</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="G3" s="5">
-        <v>6.3299999999999995E-2</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="H3" s="5">
-        <v>7.1199999999999999E-2</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="I3" s="5">
-        <v>9.5600000000000004E-2</v>
+        <v>0.12640000000000001</v>
       </c>
       <c r="J3" s="2">
-        <v>44287</v>
+        <f t="shared" si="1"/>
+        <v>44291</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f>A5+1</f>
-        <v>44286</v>
+        <f t="shared" si="0"/>
+        <v>44290</v>
       </c>
       <c r="B4" s="5">
-        <v>0.1416</v>
+        <v>0.1457</v>
       </c>
       <c r="C4" s="5">
-        <v>0.1739</v>
+        <v>0.1714</v>
       </c>
       <c r="D4" s="5">
-        <v>0.1104</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="E4" s="5">
-        <v>0.1227</v>
+        <v>0.1366</v>
       </c>
       <c r="F4" s="5">
-        <v>0.11269999999999999</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="G4" s="5">
-        <v>6.54E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="H4" s="5">
-        <v>7.1900000000000006E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>9.4799999999999995E-2</v>
+        <v>0.1045</v>
       </c>
       <c r="J4" s="2">
-        <v>44286</v>
+        <f t="shared" si="1"/>
+        <v>44290</v>
       </c>
       <c r="K4" s="2">
-        <f>K5+1</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44285</v>
+        <f t="shared" si="0"/>
+        <v>44289</v>
       </c>
       <c r="B5" s="5">
-        <v>0.13980000000000001</v>
+        <v>0.1474</v>
       </c>
       <c r="C5" s="5">
-        <v>0.17649999999999999</v>
+        <v>0.1714</v>
       </c>
       <c r="D5" s="5">
-        <v>0.1091</v>
+        <v>0.1295</v>
       </c>
       <c r="E5" s="5">
-        <v>0.1207</v>
+        <v>0.1363</v>
       </c>
       <c r="F5" s="5">
-        <v>0.11020000000000001</v>
+        <v>0.1216</v>
       </c>
       <c r="G5" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="H5" s="5">
-        <v>6.8599999999999994E-2</v>
+        <v>7.8799999999999995E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>9.4100000000000003E-2</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="J5" s="2">
-        <v>44285</v>
+        <f>(J6+1)</f>
+        <v>44289</v>
       </c>
       <c r="K5" s="2">
-        <v>31</v>
+        <f>(K6)+1</f>
+        <v>35</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44284</v>
+        <f>A7+1</f>
+        <v>44288</v>
       </c>
       <c r="B6" s="5">
-        <v>0.12959999999999999</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="C6" s="5">
-        <v>0.1618</v>
+        <v>0.1714</v>
       </c>
       <c r="D6" s="5">
-        <v>9.9299999999999999E-2</v>
+        <v>0.1196</v>
       </c>
       <c r="E6" s="5">
-        <v>0.115</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F6" s="5">
-        <v>9.9099999999999994E-2</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="G6" s="5">
-        <v>5.6599999999999998E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>5.8200000000000002E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="I6" s="5">
-        <v>8.9200000000000002E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="J6" s="2">
-        <v>44284</v>
+        <v>44288</v>
       </c>
       <c r="K6" s="2">
-        <v>30</v>
+        <f t="shared" ref="K6:K7" si="3">K7+1</f>
+        <v>34</v>
       </c>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44283</v>
+        <f>A8+1</f>
+        <v>44287</v>
       </c>
       <c r="B7" s="5">
-        <v>0.1013</v>
+        <v>0.1414</v>
       </c>
       <c r="C7" s="5">
-        <v>0.1618</v>
+        <v>0.1714</v>
       </c>
       <c r="D7" s="5">
-        <v>7.4200000000000002E-2</v>
+        <v>0.1113</v>
       </c>
       <c r="E7" s="5">
-        <v>8.8200000000000001E-2</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="F7" s="5">
-        <v>7.8899999999999998E-2</v>
+        <v>0.1124</v>
       </c>
       <c r="G7" s="5">
-        <v>3.7900000000000003E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="H7" s="5">
-        <v>5.9299999999999999E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="I7" s="5">
-        <v>7.0699999999999999E-2</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>44283</v>
+        <v>44287</v>
       </c>
       <c r="K7" s="2">
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44282</v>
+        <f>A9+1</f>
+        <v>44286</v>
       </c>
       <c r="B8" s="5">
-        <v>9.7500000000000003E-2</v>
+        <v>0.1416</v>
       </c>
       <c r="C8" s="5">
-        <v>0.1618</v>
+        <v>0.1739</v>
       </c>
       <c r="D8" s="5">
-        <v>7.0099999999999996E-2</v>
+        <v>0.1104</v>
       </c>
       <c r="E8" s="5">
-        <v>8.6699999999999999E-2</v>
+        <v>0.1227</v>
       </c>
       <c r="F8" s="5">
-        <v>7.3800000000000004E-2</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="G8" s="5">
-        <v>3.7900000000000003E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="H8" s="5">
-        <v>5.5599999999999997E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="I8" s="5">
-        <v>6.6100000000000006E-2</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>44282</v>
+        <v>44286</v>
       </c>
       <c r="K8" s="2">
-        <v>28</v>
+        <f>K9+1</f>
+        <v>32</v>
       </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="B9" s="5">
-        <v>9.8799999999999999E-2</v>
+        <v>0.13980000000000001</v>
       </c>
       <c r="C9" s="5">
-        <v>0.14710000000000001</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="D9" s="5">
-        <v>7.0900000000000005E-2</v>
+        <v>0.1091</v>
       </c>
       <c r="E9" s="5">
-        <v>8.4900000000000003E-2</v>
+        <v>0.1207</v>
       </c>
       <c r="F9" s="5">
-        <v>7.5499999999999998E-2</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="G9" s="5">
-        <v>3.3700000000000001E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H9" s="5">
-        <v>5.62E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="I9" s="5">
-        <v>6.8199999999999997E-2</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>44281</v>
+        <v>44285</v>
       </c>
       <c r="K9" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44280</v>
+        <v>44284</v>
       </c>
       <c r="B10" s="5">
-        <v>9.5500000000000002E-2</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="C10" s="5">
-        <v>0.14929999999999999</v>
+        <v>0.1618</v>
       </c>
       <c r="D10" s="5">
-        <v>6.9400000000000003E-2</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>8.2600000000000007E-2</v>
+        <v>0.115</v>
       </c>
       <c r="F10" s="5">
-        <v>7.3300000000000004E-2</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="H10" s="5">
-        <v>5.62E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="I10" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>44280</v>
+        <v>44284</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" ref="K10:K33" si="1">K11+1</f>
-        <v>26</v>
-      </c>
-      <c r="M10" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>A10-1</f>
-        <v>44279</v>
+        <v>44283</v>
       </c>
       <c r="B11" s="5">
-        <v>8.9700000000000002E-2</v>
+        <v>0.1013</v>
       </c>
       <c r="C11" s="5">
-        <v>0.11940000000000001</v>
+        <v>0.1618</v>
       </c>
       <c r="D11" s="5">
-        <v>6.5100000000000005E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>7.4899999999999994E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="F11" s="5">
-        <v>6.8099999999999994E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="G11" s="5">
-        <v>2.9100000000000001E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H11" s="5">
-        <v>5.2600000000000001E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="I11" s="5">
-        <v>6.0400000000000002E-2</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="J11" s="2">
-        <f>J10-1</f>
-        <v>44279</v>
+        <v>44283</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="M11" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f t="shared" ref="A12:A35" si="2">A11-1</f>
-        <v>44278</v>
+        <v>44282</v>
       </c>
       <c r="B12" s="5">
-        <v>8.72E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.1045</v>
+        <v>0.1618</v>
       </c>
       <c r="D12" s="5">
-        <v>6.3399999999999998E-2</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>6.9699999999999998E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="F12" s="5">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="I12" s="5">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="G12" s="5">
-        <v>2.93E-2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="I12" s="5">
-        <v>5.9200000000000003E-2</v>
-      </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:J35" si="3">J11-1</f>
-        <v>44278</v>
+        <v>44282</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="M12" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f t="shared" si="2"/>
-        <v>44277</v>
+        <v>44281</v>
       </c>
       <c r="B13" s="5">
-        <v>8.5999999999999993E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.1077</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="D13" s="5">
-        <v>6.2899999999999998E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>6.7000000000000004E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="F13" s="5">
-        <v>6.54E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="G13" s="5">
-        <v>2.93E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="H13" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I13" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
-        <v>44277</v>
+        <v>44281</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="M13" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" si="2"/>
-        <v>44276</v>
+        <v>44280</v>
       </c>
       <c r="B14" s="5">
-        <v>6.9599999999999995E-2</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.1061</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="D14" s="5">
-        <v>5.5300000000000002E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>5.4100000000000002E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="F14" s="5">
-        <v>5.3800000000000001E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>1.95E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H14" s="5">
-        <v>3.4099999999999998E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I14" s="5">
-        <v>4.9799999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
-        <v>44276</v>
+        <v>44280</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" ref="K14:K37" si="4">K15+1</f>
+        <v>26</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f t="shared" si="2"/>
-        <v>44275</v>
+        <f>A14-1</f>
+        <v>44279</v>
       </c>
       <c r="B15" s="5">
-        <v>6.6400000000000001E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.1061</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="D15" s="5">
-        <v>5.5599999999999997E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>5.33E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="F15" s="5">
-        <v>5.3199999999999997E-2</v>
+        <v>6.8099999999999994E-2</v>
       </c>
       <c r="G15" s="5">
-        <v>1.95E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="H15" s="5">
-        <v>3.4200000000000001E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="I15" s="5">
-        <v>4.9200000000000001E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
-        <v>44275</v>
+        <f>J14-1</f>
+        <v>44279</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" si="2"/>
-        <v>44274</v>
+        <f t="shared" ref="A16:A39" si="5">A15-1</f>
+        <v>44278</v>
       </c>
       <c r="B16" s="5">
-        <v>6.3799999999999996E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="C16" s="5">
-        <v>9.2299999999999993E-2</v>
+        <v>0.1045</v>
       </c>
       <c r="D16" s="5">
-        <v>5.16E-2</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>4.82E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="F16" s="5">
-        <v>4.7899999999999998E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="G16" s="5">
-        <v>1.95E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H16" s="5">
-        <v>3.09E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I16" s="5">
-        <v>4.6800000000000001E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
-        <v>44274</v>
+        <f t="shared" ref="J16:J39" si="6">J15-1</f>
+        <v>44278</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="2"/>
-        <v>44273</v>
+        <f t="shared" si="5"/>
+        <v>44277</v>
       </c>
       <c r="B17" s="5">
-        <v>5.7700000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C17" s="5">
-        <v>7.9399999999999998E-2</v>
+        <v>0.1077</v>
       </c>
       <c r="D17" s="5">
-        <v>4.8899999999999999E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>4.5600000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F17" s="5">
-        <v>4.4900000000000002E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="G17" s="5">
-        <v>1.49E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H17" s="5">
-        <v>2.7199999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I17" s="5">
-        <v>4.3700000000000003E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
-        <v>44273</v>
+        <f t="shared" si="6"/>
+        <v>44277</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="2"/>
-        <v>44272</v>
+        <f t="shared" si="5"/>
+        <v>44276</v>
       </c>
       <c r="B18" s="5">
-        <v>5.4399999999999997E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="C18" s="5">
-        <v>6.5600000000000006E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D18" s="5">
-        <v>4.1099999999999998E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>4.3499999999999997E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="F18" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="G18" s="5">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H18" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="I18" s="5">
-        <v>3.9399999999999998E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
-        <v>44272</v>
+        <f t="shared" si="6"/>
+        <v>44276</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="2"/>
-        <v>44271</v>
+        <f t="shared" si="5"/>
+        <v>44275</v>
       </c>
       <c r="B19" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="C19" s="5">
-        <v>6.5600000000000006E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D19" s="5">
-        <v>3.8199999999999998E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>4.2099999999999999E-2</v>
+        <v>5.33E-2</v>
       </c>
       <c r="F19" s="5">
-        <v>3.7400000000000003E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="G19" s="5">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H19" s="5">
-        <v>1.5699999999999999E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="I19" s="5">
-        <v>3.8699999999999998E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
-        <v>44271</v>
+        <f t="shared" si="6"/>
+        <v>44275</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="2"/>
-        <v>44270</v>
+        <f t="shared" si="5"/>
+        <v>44274</v>
       </c>
       <c r="B20" s="5">
-        <v>4.9299999999999997E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="C20" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="D20" s="5">
-        <v>3.7400000000000003E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="E20" s="5">
-        <v>4.0300000000000002E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="F20" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="G20" s="5">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H20" s="5">
-        <v>1.5800000000000002E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="I20" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
-        <v>44270</v>
+        <f t="shared" si="6"/>
+        <v>44274</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f t="shared" si="2"/>
-        <v>44269</v>
+        <f t="shared" si="5"/>
+        <v>44273</v>
       </c>
       <c r="B21" s="5">
-        <v>4.58E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="C21" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="D21" s="5">
-        <v>3.3300000000000003E-2</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>3.7600000000000001E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="F21" s="5">
-        <v>3.09E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="G21" s="5">
-        <v>0.01</v>
+        <v>1.49E-2</v>
       </c>
       <c r="H21" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="I21" s="5">
-        <v>3.4700000000000002E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
-        <v>44269</v>
+        <f t="shared" si="6"/>
+        <v>44273</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f t="shared" si="2"/>
-        <v>44268</v>
+        <f t="shared" si="5"/>
+        <v>44272</v>
       </c>
       <c r="B22" s="5">
-        <v>4.2900000000000001E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="C22" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>3.2399999999999998E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>3.6200000000000003E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F22" s="5">
-        <v>2.8500000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G22" s="5">
         <v>0.01</v>
       </c>
       <c r="H22" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="I22" s="5">
-        <v>3.2500000000000001E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
-        <v>44268</v>
+        <f t="shared" si="6"/>
+        <v>44272</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f t="shared" si="2"/>
-        <v>44267</v>
+        <f t="shared" si="5"/>
+        <v>44271</v>
       </c>
       <c r="B23" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="E23" s="5">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="C23" s="5">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="E23" s="5">
-        <v>3.6299999999999999E-2</v>
-      </c>
       <c r="F23" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="G23" s="5">
         <v>0.01</v>
       </c>
       <c r="H23" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="I23" s="5">
-        <v>3.0700000000000002E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
-        <v>44267</v>
+        <f t="shared" si="6"/>
+        <v>44271</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f t="shared" si="2"/>
-        <v>44266</v>
+        <f t="shared" si="5"/>
+        <v>44270</v>
       </c>
       <c r="B24" s="5">
-        <v>3.8899999999999997E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>3.44E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="F24" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G24" s="5">
         <v>0.01</v>
       </c>
       <c r="H24" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="I24" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
-        <v>44266</v>
+        <f t="shared" si="6"/>
+        <v>44270</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <f t="shared" si="2"/>
-        <v>44265</v>
+        <f t="shared" si="5"/>
+        <v>44269</v>
       </c>
       <c r="B25" s="5">
-        <v>3.5400000000000001E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="C25" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="F25" s="5">
-        <v>2.4799999999999999E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G25" s="5">
         <v>0.01</v>
@@ -1397,76 +1397,76 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I25" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
-        <v>44265</v>
+        <f t="shared" si="6"/>
+        <v>44269</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f t="shared" si="2"/>
-        <v>44264</v>
+        <f t="shared" si="5"/>
+        <v>44268</v>
       </c>
       <c r="B26" s="5">
-        <v>3.4500000000000003E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="C26" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="D26" s="5">
-        <v>2.5100000000000001E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>3.09E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="F26" s="5">
-        <v>2.3699999999999999E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="G26" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H26" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I26" s="5">
-        <v>2.76E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
-        <v>44264</v>
+        <f t="shared" si="6"/>
+        <v>44268</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <f t="shared" si="2"/>
-        <v>44263</v>
+        <f t="shared" si="5"/>
+        <v>44267</v>
       </c>
       <c r="B27" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="C27" s="5">
-        <v>3.39E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D27" s="5">
-        <v>1.9699999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="E27" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="F27" s="5">
-        <v>2.3E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G27" s="5">
         <v>0.01</v>
@@ -1475,350 +1475,506 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I27" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="3"/>
-        <v>44263</v>
+        <f t="shared" si="6"/>
+        <v>44267</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <f t="shared" si="2"/>
-        <v>44262</v>
+        <f t="shared" si="5"/>
+        <v>44266</v>
       </c>
       <c r="B28" s="5">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="D28" s="5">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="C28" s="5">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1.8800000000000001E-2</v>
-      </c>
       <c r="E28" s="5">
-        <v>2.6599999999999999E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="F28" s="5">
-        <v>2.1499999999999998E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G28" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H28" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I28" s="5">
-        <v>2.4400000000000002E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
-        <v>44262</v>
+        <f t="shared" si="6"/>
+        <v>44266</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <f t="shared" si="2"/>
-        <v>44261</v>
+        <f t="shared" si="5"/>
+        <v>44265</v>
       </c>
       <c r="B29" s="5">
-        <v>2.81E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="C29" s="5">
-        <v>1.72E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D29" s="5">
-        <v>1.77E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E29" s="5">
-        <v>2.2700000000000001E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F29" s="5">
-        <v>2.0199999999999999E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="G29" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H29" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I29" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
-        <v>44261</v>
+        <f t="shared" si="6"/>
+        <v>44265</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <f t="shared" si="2"/>
-        <v>44260</v>
+        <f t="shared" si="5"/>
+        <v>44264</v>
       </c>
       <c r="B30" s="5">
-        <v>2.6700000000000002E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="C30" s="5">
-        <v>1.7899999999999999E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D30" s="5">
-        <v>1.5599999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>0.02</v>
+        <v>3.09E-2</v>
       </c>
       <c r="F30" s="5">
-        <v>1.9800000000000002E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="G30" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H30" s="5">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I30" s="5">
-        <v>2.1899999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
-        <v>44260</v>
+        <f t="shared" si="6"/>
+        <v>44264</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <f t="shared" si="2"/>
-        <v>44259</v>
+        <f t="shared" si="5"/>
+        <v>44263</v>
       </c>
       <c r="B31" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C31" s="5">
-        <v>0</v>
+        <v>3.39E-2</v>
       </c>
       <c r="D31" s="5">
-        <v>1.5599999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="E31" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F31" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G31" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H31" s="5">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I31" s="5">
-        <v>1.95E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="3"/>
-        <v>44259</v>
+        <f t="shared" si="6"/>
+        <v>44263</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <f t="shared" si="2"/>
-        <v>44258</v>
+        <f t="shared" si="5"/>
+        <v>44262</v>
       </c>
       <c r="B32" s="5">
-        <v>2.35E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="C32" s="5">
-        <v>0</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D32" s="5">
-        <v>1.23E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="E32" s="5">
-        <v>1.7600000000000001E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="F32" s="5">
-        <v>1.47E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="G32" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H32" s="5">
-        <v>1.61E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I32" s="5">
-        <v>1.72E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="3"/>
-        <v>44258</v>
+        <f t="shared" si="6"/>
+        <v>44262</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <f t="shared" si="2"/>
-        <v>44257</v>
+        <f t="shared" si="5"/>
+        <v>44261</v>
       </c>
       <c r="B33" s="5">
-        <v>2.24E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="C33" s="5">
-        <v>0</v>
+        <v>1.72E-2</v>
       </c>
       <c r="D33" s="5">
-        <v>1.1299999999999999E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="E33" s="5">
-        <v>1.6500000000000001E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="F33" s="5">
-        <v>1.2800000000000001E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G33" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H33" s="5">
-        <v>1.61E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I33" s="5">
-        <v>1.72E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="3"/>
-        <v>44257</v>
+        <f t="shared" si="6"/>
+        <v>44261</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f t="shared" si="2"/>
-        <v>44256</v>
+        <f t="shared" si="5"/>
+        <v>44260</v>
       </c>
       <c r="B34" s="5">
-        <v>2.07E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="C34" s="5">
-        <v>0</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="D34" s="5">
-        <v>1.12E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E34" s="5">
-        <v>1.52E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F34" s="5">
-        <v>1.17E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="G34" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H34" s="5">
-        <v>8.0999999999999996E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I34" s="5">
-        <v>1.6799999999999999E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="3"/>
-        <v>44256</v>
+        <f t="shared" si="6"/>
+        <v>44260</v>
       </c>
       <c r="K34" s="2">
-        <f>K35+1</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f t="shared" si="2"/>
-        <v>44255</v>
+        <f t="shared" si="5"/>
+        <v>44259</v>
       </c>
       <c r="B35" s="5">
-        <v>2.0400000000000001E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="C35" s="5">
         <v>0</v>
       </c>
       <c r="D35" s="5">
-        <v>1.14E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E35" s="5">
-        <v>1.49E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="F35" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G35" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H35" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1.95E-2</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="6"/>
+        <v>44259</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="5"/>
+        <v>44258</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2.35E-2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1.72E-2</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="6"/>
+        <v>44258</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="5"/>
+        <v>44257</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2.24E-2</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1.72E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="6"/>
+        <v>44257</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="5"/>
+        <v>44256</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2.07E-2</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1.52E-2</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1.17E-2</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H38" s="5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="6"/>
+        <v>44256</v>
+      </c>
+      <c r="K38" s="2">
+        <f>K39+1</f>
+        <v>2</v>
+      </c>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="5"/>
+        <v>44255</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H39" s="5">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I39" s="5">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J35" s="2">
-        <f t="shared" si="3"/>
+      <c r="J39" s="2">
+        <f t="shared" si="6"/>
         <v>44255</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K39" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L41" t="s">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J42" s="2" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="2">
-        <f>J9+10</f>
+      <c r="K46" s="2">
+        <f>J13+10</f>
         <v>44291</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J43" s="2" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="2">
-        <f>J9+20</f>
+      <c r="K47" s="2">
+        <f>J13+20</f>
         <v>44301</v>
       </c>
     </row>

--- a/durham_VOC_positivity.xlsx
+++ b/durham_VOC_positivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D4405-52C3-5E4A-AFD7-9EE8BE1F32C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2431011-28ED-254E-A34E-F4CD252852DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
   </bookViews>
@@ -123,13 +123,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD76F85-D46A-004E-8298-45C4EF23387B}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,1486 +496,1759 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A5" si="0">A3+1</f>
-        <v>44292</v>
+        <f t="shared" ref="A2:A8" si="0">A3+1</f>
+        <v>44299</v>
       </c>
       <c r="B2" s="5">
-        <v>0.1726</v>
+        <v>0.25009999999999999</v>
       </c>
       <c r="C2" s="5">
-        <v>0.17810000000000001</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.1429</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.15260000000000001</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="G2" s="5">
-        <v>9.3200000000000005E-2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>9.6299999999999997E-2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.12609999999999999</v>
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.2455</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.2344</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.21290000000000001</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J4" si="1">(J3+1)</f>
-        <v>44292</v>
+        <f t="shared" ref="J2:J8" si="1">(J3+1)</f>
+        <v>44299</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K4" si="2">(K3)+1</f>
-        <v>38</v>
+        <f t="shared" ref="K2:K8" si="2">(K3)+1</f>
+        <v>45</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B3" s="5">
-        <v>0.17249999999999999</v>
+        <v>0.2414</v>
       </c>
       <c r="C3" s="5">
-        <v>0.18310000000000001</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="G3" s="5">
-        <v>9.4799999999999995E-2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>9.7299999999999998E-2</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.12640000000000001</v>
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.2334</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.2283</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.2218</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.20680000000000001</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.20200000000000001</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="1"/>
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
-        <v>44290</v>
+        <v>44297</v>
       </c>
       <c r="B4" s="5">
-        <v>0.1457</v>
+        <v>0.2263</v>
       </c>
       <c r="C4" s="5">
-        <v>0.1714</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.1366</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="G4" s="5">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="H4" s="5">
-        <v>8.14E-2</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.1045</v>
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.2142</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.2152</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.18160000000000001</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="1"/>
-        <v>44290</v>
+        <v>44297</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>44289</v>
+        <v>44296</v>
       </c>
       <c r="B5" s="5">
-        <v>0.1474</v>
+        <v>0.20419999999999999</v>
       </c>
       <c r="C5" s="5">
-        <v>0.1714</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.1295</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.1363</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.1216</v>
-      </c>
-      <c r="G5" s="5">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.10150000000000001</v>
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.1956</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.1908</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.1719</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.16109999999999999</v>
       </c>
       <c r="J5" s="2">
-        <f>(J6+1)</f>
-        <v>44289</v>
+        <f t="shared" si="1"/>
+        <v>44296</v>
       </c>
       <c r="K5" s="2">
-        <f>(K6)+1</f>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f>A7+1</f>
-        <v>44288</v>
+        <f t="shared" si="0"/>
+        <v>44295</v>
       </c>
       <c r="B6" s="5">
-        <v>0.14549999999999999</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="C6" s="5">
-        <v>0.1714</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.1196</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.11849999999999999</v>
-      </c>
-      <c r="G6" s="5">
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="H6" s="5">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.1011</v>
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.17979999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.1246</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.14899999999999999</v>
       </c>
       <c r="J6" s="2">
-        <v>44288</v>
+        <f t="shared" si="1"/>
+        <v>44295</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:K7" si="3">K7+1</f>
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f>A8+1</f>
-        <v>44287</v>
+        <f t="shared" si="0"/>
+        <v>44294</v>
       </c>
       <c r="B7" s="5">
-        <v>0.1414</v>
+        <v>0.19020000000000001</v>
       </c>
       <c r="C7" s="5">
-        <v>0.1714</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.1113</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.12590000000000001</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.1124</v>
-      </c>
-      <c r="G7" s="5">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="I7" s="5">
-        <v>9.5600000000000004E-2</v>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.1658</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.1686</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.13059999999999999</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.14430000000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>44287</v>
+        <f t="shared" si="1"/>
+        <v>44294</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>A9+1</f>
-        <v>44286</v>
+        <f t="shared" si="0"/>
+        <v>44293</v>
       </c>
       <c r="B8" s="5">
-        <v>0.1416</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="C8" s="5">
-        <v>0.1739</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.1104</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.1227</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.11269999999999999</v>
-      </c>
-      <c r="G8" s="5">
-        <v>6.54E-2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="I8" s="5">
-        <v>9.4799999999999995E-2</v>
+        <v>0.1711</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.1487</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.1593</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.1615</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.1116</v>
+      </c>
+      <c r="H8" s="6">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.13600000000000001</v>
       </c>
       <c r="J8" s="2">
-        <v>44286</v>
+        <f t="shared" si="1"/>
+        <v>44293</v>
       </c>
       <c r="K8" s="2">
-        <f>K9+1</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44285</v>
+        <f t="shared" ref="A9:A12" si="3">A10+1</f>
+        <v>44292</v>
       </c>
       <c r="B9" s="5">
-        <v>0.13980000000000001</v>
+        <v>0.1726</v>
       </c>
       <c r="C9" s="5">
-        <v>0.17649999999999999</v>
+        <v>0.17810000000000001</v>
       </c>
       <c r="D9" s="5">
-        <v>0.1091</v>
+        <v>0.1429</v>
       </c>
       <c r="E9" s="5">
-        <v>0.1207</v>
+        <v>0.15260000000000001</v>
       </c>
       <c r="F9" s="5">
-        <v>0.11020000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="G9" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>9.3200000000000005E-2</v>
       </c>
       <c r="H9" s="5">
-        <v>6.8599999999999994E-2</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="I9" s="5">
-        <v>9.4100000000000003E-2</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="J9" s="2">
-        <v>44285</v>
+        <f t="shared" ref="J9:J11" si="4">(J10+1)</f>
+        <v>44292</v>
       </c>
       <c r="K9" s="2">
-        <v>31</v>
+        <f t="shared" ref="K9:K11" si="5">(K10)+1</f>
+        <v>38</v>
       </c>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44284</v>
+        <f t="shared" si="3"/>
+        <v>44291</v>
       </c>
       <c r="B10" s="5">
-        <v>0.12959999999999999</v>
+        <v>0.17249999999999999</v>
       </c>
       <c r="C10" s="5">
-        <v>0.1618</v>
+        <v>0.18310000000000001</v>
       </c>
       <c r="D10" s="5">
-        <v>9.9299999999999999E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E10" s="5">
-        <v>0.115</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="F10" s="5">
-        <v>9.9099999999999994E-2</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="G10" s="5">
-        <v>5.6599999999999998E-2</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="H10" s="5">
-        <v>5.8200000000000002E-2</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="I10" s="5">
-        <v>8.9200000000000002E-2</v>
+        <v>0.12640000000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>44284</v>
+        <f t="shared" si="4"/>
+        <v>44291</v>
       </c>
       <c r="K10" s="2">
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44283</v>
+        <f t="shared" si="3"/>
+        <v>44290</v>
       </c>
       <c r="B11" s="5">
-        <v>0.1013</v>
+        <v>0.1457</v>
       </c>
       <c r="C11" s="5">
-        <v>0.1618</v>
+        <v>0.1714</v>
       </c>
       <c r="D11" s="5">
-        <v>7.4200000000000002E-2</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="E11" s="5">
-        <v>8.8200000000000001E-2</v>
+        <v>0.1366</v>
       </c>
       <c r="F11" s="5">
-        <v>7.8899999999999998E-2</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="G11" s="5">
-        <v>3.7900000000000003E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="H11" s="5">
-        <v>5.9299999999999999E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="I11" s="5">
-        <v>7.0699999999999999E-2</v>
+        <v>0.1045</v>
       </c>
       <c r="J11" s="2">
-        <v>44283</v>
+        <f t="shared" si="4"/>
+        <v>44290</v>
       </c>
       <c r="K11" s="2">
-        <v>29</v>
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44282</v>
+        <f t="shared" si="3"/>
+        <v>44289</v>
       </c>
       <c r="B12" s="5">
-        <v>9.7500000000000003E-2</v>
+        <v>0.1474</v>
       </c>
       <c r="C12" s="5">
-        <v>0.1618</v>
+        <v>0.1714</v>
       </c>
       <c r="D12" s="5">
-        <v>7.0099999999999996E-2</v>
+        <v>0.1295</v>
       </c>
       <c r="E12" s="5">
-        <v>8.6699999999999999E-2</v>
+        <v>0.1363</v>
       </c>
       <c r="F12" s="5">
-        <v>7.3800000000000004E-2</v>
+        <v>0.1216</v>
       </c>
       <c r="G12" s="5">
-        <v>3.7900000000000003E-2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="H12" s="5">
-        <v>5.5599999999999997E-2</v>
+        <v>7.8799999999999995E-2</v>
       </c>
       <c r="I12" s="5">
-        <v>6.6100000000000006E-2</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="J12" s="2">
-        <v>44282</v>
+        <f>(J13+1)</f>
+        <v>44289</v>
       </c>
       <c r="K12" s="2">
-        <v>28</v>
+        <f>(K13)+1</f>
+        <v>35</v>
       </c>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44281</v>
+        <f>A14+1</f>
+        <v>44288</v>
       </c>
       <c r="B13" s="5">
-        <v>9.8799999999999999E-2</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="C13" s="5">
-        <v>0.14710000000000001</v>
+        <v>0.1714</v>
       </c>
       <c r="D13" s="5">
-        <v>7.0900000000000005E-2</v>
+        <v>0.1196</v>
       </c>
       <c r="E13" s="5">
-        <v>8.4900000000000003E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F13" s="5">
-        <v>7.5499999999999998E-2</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="G13" s="5">
-        <v>3.3700000000000001E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="H13" s="5">
-        <v>5.62E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="I13" s="5">
-        <v>6.8199999999999997E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="J13" s="2">
-        <v>44281</v>
+        <v>44288</v>
       </c>
       <c r="K13" s="2">
-        <v>27</v>
+        <f t="shared" ref="K13:K14" si="6">K14+1</f>
+        <v>34</v>
       </c>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44280</v>
+        <f>A15+1</f>
+        <v>44287</v>
       </c>
       <c r="B14" s="5">
-        <v>9.5500000000000002E-2</v>
+        <v>0.1414</v>
       </c>
       <c r="C14" s="5">
-        <v>0.14929999999999999</v>
+        <v>0.1714</v>
       </c>
       <c r="D14" s="5">
-        <v>6.9400000000000003E-2</v>
+        <v>0.1113</v>
       </c>
       <c r="E14" s="5">
-        <v>8.2600000000000007E-2</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="F14" s="5">
-        <v>7.3300000000000004E-2</v>
+        <v>0.1124</v>
       </c>
       <c r="G14" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="H14" s="5">
-        <v>5.62E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="I14" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>44280</v>
+        <v>44287</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" ref="K14:K37" si="4">K15+1</f>
-        <v>26</v>
-      </c>
-      <c r="M14" s="4"/>
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f>A14-1</f>
-        <v>44279</v>
+        <f>A16+1</f>
+        <v>44286</v>
       </c>
       <c r="B15" s="5">
-        <v>8.9700000000000002E-2</v>
+        <v>0.1416</v>
       </c>
       <c r="C15" s="5">
-        <v>0.11940000000000001</v>
+        <v>0.1739</v>
       </c>
       <c r="D15" s="5">
-        <v>6.5100000000000005E-2</v>
+        <v>0.1104</v>
       </c>
       <c r="E15" s="5">
-        <v>7.4899999999999994E-2</v>
+        <v>0.1227</v>
       </c>
       <c r="F15" s="5">
-        <v>6.8099999999999994E-2</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="G15" s="5">
-        <v>2.9100000000000001E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="H15" s="5">
-        <v>5.2600000000000001E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="I15" s="5">
-        <v>6.0400000000000002E-2</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="J15" s="2">
-        <f>J14-1</f>
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="M15" s="4"/>
+        <f>K16+1</f>
+        <v>32</v>
+      </c>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" ref="A16:A39" si="5">A15-1</f>
-        <v>44278</v>
+        <v>44285</v>
       </c>
       <c r="B16" s="5">
-        <v>8.72E-2</v>
+        <v>0.13980000000000001</v>
       </c>
       <c r="C16" s="5">
-        <v>0.1045</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="D16" s="5">
-        <v>6.3399999999999998E-2</v>
+        <v>0.1091</v>
       </c>
       <c r="E16" s="5">
-        <v>6.9699999999999998E-2</v>
+        <v>0.1207</v>
       </c>
       <c r="F16" s="5">
-        <v>6.6100000000000006E-2</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="G16" s="5">
-        <v>2.93E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H16" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="I16" s="5">
-        <v>5.9200000000000003E-2</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ref="J16:J39" si="6">J15-1</f>
-        <v>44278</v>
+        <v>44285</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="M16" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="5"/>
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B17" s="5">
-        <v>8.5999999999999993E-2</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="C17" s="5">
-        <v>0.1077</v>
+        <v>0.1618</v>
       </c>
       <c r="D17" s="5">
-        <v>6.2899999999999998E-2</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>6.7000000000000004E-2</v>
+        <v>0.115</v>
       </c>
       <c r="F17" s="5">
-        <v>6.54E-2</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="G17" s="5">
-        <v>2.93E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="H17" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="I17" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="6"/>
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="M17" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="5"/>
-        <v>44276</v>
+        <v>44283</v>
       </c>
       <c r="B18" s="5">
-        <v>6.9599999999999995E-2</v>
+        <v>0.1013</v>
       </c>
       <c r="C18" s="5">
-        <v>0.1061</v>
+        <v>0.1618</v>
       </c>
       <c r="D18" s="5">
-        <v>5.5300000000000002E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>5.4100000000000002E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="F18" s="5">
-        <v>5.3800000000000001E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="G18" s="5">
-        <v>1.95E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H18" s="5">
-        <v>3.4099999999999998E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="I18" s="5">
-        <v>4.9799999999999997E-2</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="6"/>
-        <v>44276</v>
+        <v>44283</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="M18" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="5"/>
-        <v>44275</v>
+        <v>44282</v>
       </c>
       <c r="B19" s="5">
-        <v>6.6400000000000001E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="C19" s="5">
-        <v>0.1061</v>
+        <v>0.1618</v>
       </c>
       <c r="D19" s="5">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H19" s="5">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="E19" s="5">
-        <v>5.33E-2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1.95E-2</v>
-      </c>
-      <c r="H19" s="5">
-        <v>3.4200000000000001E-2</v>
-      </c>
       <c r="I19" s="5">
-        <v>4.9200000000000001E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="6"/>
-        <v>44275</v>
+        <v>44282</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="M19" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="5"/>
-        <v>44274</v>
+        <v>44281</v>
       </c>
       <c r="B20" s="5">
-        <v>6.3799999999999996E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="C20" s="5">
-        <v>9.2299999999999993E-2</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="D20" s="5">
-        <v>5.16E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="E20" s="5">
-        <v>4.82E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="F20" s="5">
-        <v>4.7899999999999998E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="G20" s="5">
-        <v>1.95E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="H20" s="5">
-        <v>3.09E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I20" s="5">
-        <v>4.6800000000000001E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="6"/>
-        <v>44274</v>
+        <v>44281</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="M20" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f t="shared" si="5"/>
-        <v>44273</v>
+        <v>44280</v>
       </c>
       <c r="B21" s="5">
-        <v>5.7700000000000001E-2</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="C21" s="5">
-        <v>7.9399999999999998E-2</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="D21" s="5">
-        <v>4.8899999999999999E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>4.5600000000000002E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="F21" s="5">
-        <v>4.4900000000000002E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="G21" s="5">
-        <v>1.49E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H21" s="5">
-        <v>2.7199999999999998E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I21" s="5">
-        <v>4.3700000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="6"/>
-        <v>44273</v>
+        <v>44280</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f t="shared" ref="K21:K44" si="7">K22+1</f>
+        <v>26</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f t="shared" si="5"/>
-        <v>44272</v>
+        <f>A21-1</f>
+        <v>44279</v>
       </c>
       <c r="B22" s="5">
-        <v>5.4399999999999997E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="C22" s="5">
-        <v>6.5600000000000006E-2</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="D22" s="5">
-        <v>4.1099999999999998E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>4.3499999999999997E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="F22" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>6.8099999999999994E-2</v>
       </c>
       <c r="G22" s="5">
-        <v>0.01</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="H22" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="I22" s="5">
-        <v>3.9399999999999998E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="6"/>
-        <v>44272</v>
+        <f>J21-1</f>
+        <v>44279</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f t="shared" si="5"/>
-        <v>44271</v>
+        <f t="shared" ref="A23:A46" si="8">A22-1</f>
+        <v>44278</v>
       </c>
       <c r="B23" s="5">
+        <v>8.72E-2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.1045</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2.93E-2</v>
+      </c>
+      <c r="H23" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C23" s="5">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="E23" s="5">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="F23" s="5">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1.5699999999999999E-2</v>
-      </c>
       <c r="I23" s="5">
-        <v>3.8699999999999998E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="6"/>
-        <v>44271</v>
+        <f t="shared" ref="J23:J46" si="9">J22-1</f>
+        <v>44278</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f t="shared" si="5"/>
-        <v>44270</v>
+        <f t="shared" si="8"/>
+        <v>44277</v>
       </c>
       <c r="B24" s="5">
-        <v>4.9299999999999997E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>0.1077</v>
       </c>
       <c r="D24" s="5">
-        <v>3.7400000000000003E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>4.0300000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F24" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="G24" s="5">
-        <v>0.01</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H24" s="5">
-        <v>1.5800000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I24" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="6"/>
-        <v>44270</v>
+        <f t="shared" si="9"/>
+        <v>44277</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <f t="shared" si="5"/>
-        <v>44269</v>
+        <f t="shared" si="8"/>
+        <v>44276</v>
       </c>
       <c r="B25" s="5">
-        <v>4.58E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="C25" s="5">
-        <v>6.6699999999999995E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D25" s="5">
-        <v>3.3300000000000003E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>3.7600000000000001E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="F25" s="5">
-        <v>3.09E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="G25" s="5">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H25" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="I25" s="5">
-        <v>3.4700000000000002E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="6"/>
-        <v>44269</v>
+        <f t="shared" si="9"/>
+        <v>44276</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f t="shared" si="5"/>
-        <v>44268</v>
+        <f t="shared" si="8"/>
+        <v>44275</v>
       </c>
       <c r="B26" s="5">
-        <v>4.2900000000000001E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="C26" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D26" s="5">
-        <v>3.2399999999999998E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>3.6200000000000003E-2</v>
+        <v>5.33E-2</v>
       </c>
       <c r="F26" s="5">
-        <v>2.8500000000000001E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="G26" s="5">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H26" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="I26" s="5">
-        <v>3.2500000000000001E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="6"/>
-        <v>44268</v>
+        <f t="shared" si="9"/>
+        <v>44275</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <f t="shared" si="5"/>
-        <v>44267</v>
+        <f t="shared" si="8"/>
+        <v>44274</v>
       </c>
       <c r="B27" s="5">
-        <v>4.2099999999999999E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="C27" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="D27" s="5">
-        <v>3.1300000000000001E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="E27" s="5">
-        <v>3.6299999999999999E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="F27" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="G27" s="5">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H27" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="I27" s="5">
-        <v>3.0700000000000002E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="6"/>
-        <v>44267</v>
+        <f t="shared" si="9"/>
+        <v>44274</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <f t="shared" si="5"/>
-        <v>44266</v>
+        <f t="shared" si="8"/>
+        <v>44273</v>
       </c>
       <c r="B28" s="5">
-        <v>3.8899999999999997E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="C28" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="D28" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E28" s="5">
-        <v>3.44E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="F28" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="G28" s="5">
-        <v>0.01</v>
+        <v>1.49E-2</v>
       </c>
       <c r="H28" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="I28" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="6"/>
-        <v>44266</v>
+        <f t="shared" si="9"/>
+        <v>44273</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <f t="shared" si="5"/>
-        <v>44265</v>
+        <f t="shared" si="8"/>
+        <v>44272</v>
       </c>
       <c r="B29" s="5">
-        <v>3.5400000000000001E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="C29" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D29" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E29" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F29" s="5">
-        <v>2.4799999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G29" s="5">
         <v>0.01</v>
       </c>
       <c r="H29" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="I29" s="5">
-        <v>2.7099999999999999E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="6"/>
-        <v>44265</v>
+        <f t="shared" si="9"/>
+        <v>44272</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <f t="shared" si="5"/>
-        <v>44264</v>
+        <f t="shared" si="8"/>
+        <v>44271</v>
       </c>
       <c r="B30" s="5">
-        <v>3.4500000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C30" s="5">
-        <v>5.0799999999999998E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D30" s="5">
-        <v>2.5100000000000001E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>3.09E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="F30" s="5">
-        <v>2.3699999999999999E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="G30" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H30" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="I30" s="5">
-        <v>2.76E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="6"/>
-        <v>44264</v>
+        <f t="shared" si="9"/>
+        <v>44271</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <f t="shared" si="5"/>
-        <v>44263</v>
+        <f t="shared" si="8"/>
+        <v>44270</v>
       </c>
       <c r="B31" s="5">
-        <v>3.1699999999999999E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="C31" s="5">
-        <v>3.39E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D31" s="5">
-        <v>1.9699999999999999E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="E31" s="5">
-        <v>2.9399999999999999E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="F31" s="5">
-        <v>2.3E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G31" s="5">
         <v>0.01</v>
       </c>
       <c r="H31" s="5">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="I31" s="5">
-        <v>2.5399999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="6"/>
-        <v>44263</v>
+        <f t="shared" si="9"/>
+        <v>44270</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <f t="shared" si="5"/>
-        <v>44262</v>
+        <f t="shared" si="8"/>
+        <v>44269</v>
       </c>
       <c r="B32" s="5">
-        <v>2.8199999999999999E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="C32" s="5">
-        <v>1.6899999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D32" s="5">
-        <v>1.8800000000000001E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="E32" s="5">
-        <v>2.6599999999999999E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="F32" s="5">
-        <v>2.1499999999999998E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G32" s="5">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H32" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I32" s="5">
-        <v>2.4400000000000002E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="6"/>
-        <v>44262</v>
+        <f t="shared" si="9"/>
+        <v>44269</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <f t="shared" si="5"/>
-        <v>44261</v>
+        <f t="shared" si="8"/>
+        <v>44268</v>
       </c>
       <c r="B33" s="5">
-        <v>2.81E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="C33" s="5">
-        <v>1.72E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D33" s="5">
-        <v>1.77E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="E33" s="5">
-        <v>2.2700000000000001E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="F33" s="5">
-        <v>2.0199999999999999E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="G33" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H33" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I33" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="6"/>
-        <v>44261</v>
+        <f t="shared" si="9"/>
+        <v>44268</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f t="shared" si="5"/>
-        <v>44260</v>
+        <f t="shared" si="8"/>
+        <v>44267</v>
       </c>
       <c r="B34" s="5">
-        <v>2.6700000000000002E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="C34" s="5">
-        <v>1.7899999999999999E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D34" s="5">
-        <v>1.5599999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="E34" s="5">
-        <v>0.02</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="F34" s="5">
-        <v>1.9800000000000002E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G34" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H34" s="5">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I34" s="5">
-        <v>2.1899999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="6"/>
-        <v>44260</v>
+        <f t="shared" si="9"/>
+        <v>44267</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f t="shared" si="5"/>
-        <v>44259</v>
+        <f t="shared" si="8"/>
+        <v>44266</v>
       </c>
       <c r="B35" s="5">
-        <v>2.4199999999999999E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="C35" s="5">
-        <v>0</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D35" s="5">
-        <v>1.5599999999999999E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="E35" s="5">
-        <v>1.9599999999999999E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="F35" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G35" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H35" s="5">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I35" s="5">
-        <v>1.95E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="6"/>
-        <v>44259</v>
+        <f t="shared" si="9"/>
+        <v>44266</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f t="shared" si="5"/>
-        <v>44258</v>
+        <f t="shared" si="8"/>
+        <v>44265</v>
       </c>
       <c r="B36" s="5">
-        <v>2.35E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="C36" s="5">
-        <v>0</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D36" s="5">
-        <v>1.23E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E36" s="5">
-        <v>1.7600000000000001E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F36" s="5">
-        <v>1.47E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="G36" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H36" s="5">
-        <v>1.61E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I36" s="5">
-        <v>1.72E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="6"/>
-        <v>44258</v>
+        <f t="shared" si="9"/>
+        <v>44265</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f t="shared" si="5"/>
-        <v>44257</v>
+        <f t="shared" si="8"/>
+        <v>44264</v>
       </c>
       <c r="B37" s="5">
-        <v>2.24E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="C37" s="5">
-        <v>0</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D37" s="5">
-        <v>1.1299999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="E37" s="5">
-        <v>1.6500000000000001E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="F37" s="5">
-        <v>1.2800000000000001E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="G37" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H37" s="5">
-        <v>1.61E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I37" s="5">
-        <v>1.72E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="6"/>
-        <v>44257</v>
+        <f t="shared" si="9"/>
+        <v>44264</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f t="shared" si="5"/>
-        <v>44256</v>
+        <f t="shared" si="8"/>
+        <v>44263</v>
       </c>
       <c r="B38" s="5">
-        <v>2.07E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C38" s="5">
-        <v>0</v>
+        <v>3.39E-2</v>
       </c>
       <c r="D38" s="5">
-        <v>1.12E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="E38" s="5">
-        <v>1.52E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F38" s="5">
-        <v>1.17E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G38" s="5">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H38" s="5">
-        <v>8.0999999999999996E-3</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I38" s="5">
-        <v>1.6799999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="6"/>
-        <v>44256</v>
+        <f t="shared" si="9"/>
+        <v>44263</v>
       </c>
       <c r="K38" s="2">
-        <f>K39+1</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>44262</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1.01E-2</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I39" s="5">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="9"/>
+        <v>44262</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="8"/>
+        <v>44261</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2.81E-2</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1.72E-2</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1.77E-2</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="9"/>
+        <v>44261</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="8"/>
+        <v>44260</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I41" s="5">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="9"/>
+        <v>44260</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="8"/>
+        <v>44259</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1.95E-2</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="9"/>
+        <v>44259</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="8"/>
+        <v>44258</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2.35E-2</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1.72E-2</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="9"/>
+        <v>44258</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="8"/>
+        <v>44257</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2.24E-2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1.72E-2</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="9"/>
+        <v>44257</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="8"/>
+        <v>44256</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2.07E-2</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.52E-2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1.17E-2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H45" s="5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="9"/>
+        <v>44256</v>
+      </c>
+      <c r="K45" s="2">
+        <f>K46+1</f>
+        <v>2</v>
+      </c>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="8"/>
         <v>44255</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B46" s="5">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C46" s="5">
         <v>0</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D46" s="5">
         <v>1.14E-2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E46" s="5">
         <v>1.49E-2</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F46" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G46" s="5">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H46" s="5">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I46" s="5">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J39" s="2">
-        <f t="shared" si="6"/>
+      <c r="J46" s="2">
+        <f t="shared" si="9"/>
         <v>44255</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K46" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L45" t="s">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="52" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J46" s="2" t="s">
+    <row r="53" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="2">
-        <f>J13+10</f>
+      <c r="K53" s="2">
+        <f>J20+10</f>
         <v>44291</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J47" s="2" t="s">
+    <row r="54" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="2">
-        <f>J13+20</f>
+      <c r="K54" s="2">
+        <f>J20+20</f>
         <v>44301</v>
       </c>
     </row>

--- a/durham_VOC_positivity.xlsx
+++ b/durham_VOC_positivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2431011-28ED-254E-A34E-F4CD252852DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50140F-0F32-3A4E-B4C1-F72628E3056D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -123,14 +123,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,1809 +461,2084 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD76F85-D46A-004E-8298-45C4EF23387B}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="10.83203125" style="5"/>
-    <col min="10" max="11" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <f t="shared" ref="A2:A8" si="0">A3+1</f>
+        <v>44306</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.29709999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.35510000000000003</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.2853</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.20169999999999999</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.26179999999999998</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:J8" si="1">(J3+1)</f>
+        <v>44306</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2:K8" si="2">(K3)+1</f>
+        <v>52</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>44305</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.28560000000000002</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.28470000000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="1"/>
+        <v>44305</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>44304</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.27050000000000002</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.2586</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.2422</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>44304</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>44303</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.25890000000000002</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.249</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.2447</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>44303</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>44302</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.2341</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>44302</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>44301</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.25979999999999998</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.2344</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.2319</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>44301</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>44300</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.2437</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.23710000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>44300</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <f t="shared" ref="A9:A15" si="3">A10+1</f>
         <v>44299</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B9" s="1">
         <v>0.25009999999999999</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C9" s="1">
         <v>0.26369999999999999</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D9" s="6">
         <v>0.2455</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E9" s="6">
         <v>0.2344</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F9" s="6">
         <v>0.23</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G9" s="6">
         <v>0.21429999999999999</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H9" s="6">
         <v>0.15290000000000001</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I9" s="6">
         <v>0.21290000000000001</v>
       </c>
-      <c r="J2" s="2">
-        <f t="shared" ref="J2:J8" si="1">(J3+1)</f>
+      <c r="J9" s="3">
+        <f t="shared" ref="J9:J15" si="4">(J10+1)</f>
         <v>44299</v>
       </c>
-      <c r="K2" s="2">
-        <f t="shared" ref="K2:K8" si="2">(K3)+1</f>
+      <c r="K9" s="3">
+        <f t="shared" ref="K9:K15" si="5">(K10)+1</f>
         <v>45</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <f t="shared" si="0"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <f t="shared" si="3"/>
         <v>44298</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B10" s="1">
         <v>0.2414</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C10" s="1">
         <v>0.23080000000000001</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D10" s="6">
         <v>0.2334</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E10" s="6">
         <v>0.2283</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F10" s="6">
         <v>0.2218</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G10" s="6">
         <v>0.20680000000000001</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H10" s="6">
         <v>0.14979999999999999</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I10" s="6">
         <v>0.20200000000000001</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" si="1"/>
+      <c r="J10" s="3">
+        <f t="shared" si="4"/>
         <v>44298</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" si="2"/>
+      <c r="K10" s="3">
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <f t="shared" si="0"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <f t="shared" si="3"/>
         <v>44297</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B11" s="1">
         <v>0.2263</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C11" s="1">
         <v>0.23080000000000001</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D11" s="6">
         <v>0.2142</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E11" s="6">
         <v>0.2152</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F11" s="6">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G11" s="6">
         <v>0.1875</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H11" s="6">
         <v>0.14460000000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I11" s="6">
         <v>0.18160000000000001</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" si="1"/>
+      <c r="J11" s="3">
+        <f t="shared" si="4"/>
         <v>44297</v>
       </c>
-      <c r="K4" s="2">
-        <f t="shared" si="2"/>
+      <c r="K11" s="3">
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <f t="shared" si="3"/>
         <v>44296</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B12" s="1">
         <v>0.20419999999999999</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C12" s="1">
         <v>0.18679999999999999</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D12" s="6">
         <v>0.18579999999999999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E12" s="6">
         <v>0.1956</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F12" s="6">
         <v>0.1908</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G12" s="6">
         <v>0.1719</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H12" s="6">
         <v>0.13539999999999999</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I12" s="6">
         <v>0.16109999999999999</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" si="1"/>
+      <c r="J12" s="3">
+        <f t="shared" si="4"/>
         <v>44296</v>
       </c>
-      <c r="K5" s="2">
-        <f t="shared" si="2"/>
+      <c r="K12" s="3">
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <f t="shared" si="3"/>
         <v>44295</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B13" s="1">
         <v>0.19570000000000001</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C13" s="1">
         <v>0.15479999999999999</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D13" s="6">
         <v>0.17</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E13" s="6">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F13" s="6">
         <v>0.17979999999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G13" s="6">
         <v>0.15140000000000001</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H13" s="6">
         <v>0.1246</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I13" s="6">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" si="1"/>
+      <c r="J13" s="3">
+        <f t="shared" si="4"/>
         <v>44295</v>
       </c>
-      <c r="K6" s="2">
-        <f t="shared" si="2"/>
+      <c r="K13" s="3">
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <f t="shared" si="3"/>
         <v>44294</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B14" s="1">
         <v>0.19020000000000001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C14" s="1">
         <v>0.16250000000000001</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D14" s="6">
         <v>0.16350000000000001</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E14" s="6">
         <v>0.1658</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F14" s="6">
         <v>0.1686</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G14" s="6">
         <v>0.13059999999999999</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H14" s="6">
         <v>0.11600000000000001</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I14" s="6">
         <v>0.14430000000000001</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="1"/>
+      <c r="J14" s="3">
+        <f t="shared" si="4"/>
         <v>44294</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" si="2"/>
+      <c r="K14" s="3">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <f t="shared" si="3"/>
         <v>44293</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B15" s="1">
         <v>0.18149999999999999</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C15" s="1">
         <v>0.1711</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D15" s="6">
         <v>0.1487</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E15" s="6">
         <v>0.1593</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F15" s="6">
         <v>0.1615</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G15" s="6">
         <v>0.1116</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H15" s="6">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I15" s="6">
         <v>0.13600000000000001</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="1"/>
+      <c r="J15" s="3">
+        <f t="shared" si="4"/>
         <v>44293</v>
       </c>
-      <c r="K8" s="2">
-        <f t="shared" si="2"/>
+      <c r="K15" s="3">
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f t="shared" ref="A9:A12" si="3">A10+1</f>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <f t="shared" ref="A16:A19" si="6">A17+1</f>
         <v>44292</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B16" s="1">
         <v>0.1726</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C16" s="1">
         <v>0.17810000000000001</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D16" s="1">
         <v>0.1429</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E16" s="1">
         <v>0.15260000000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F16" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G16" s="1">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H16" s="1">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I16" s="1">
         <v>0.12609999999999999</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" ref="J9:J11" si="4">(J10+1)</f>
+      <c r="J16" s="3">
+        <f t="shared" ref="J16:J18" si="7">(J17+1)</f>
         <v>44292</v>
       </c>
-      <c r="K9" s="2">
-        <f t="shared" ref="K9:K11" si="5">(K10)+1</f>
+      <c r="K16" s="3">
+        <f t="shared" ref="K16:K18" si="8">(K17)+1</f>
         <v>38</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <f t="shared" si="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <f t="shared" si="6"/>
         <v>44291</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B17" s="1">
         <v>0.17249999999999999</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C17" s="1">
         <v>0.18310000000000001</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D17" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E17" s="1">
         <v>0.15390000000000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F17" s="1">
         <v>0.14749999999999999</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G17" s="1">
         <v>9.4799999999999995E-2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H17" s="1">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I17" s="1">
         <v>0.12640000000000001</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" si="4"/>
+      <c r="J17" s="3">
+        <f t="shared" si="7"/>
         <v>44291</v>
       </c>
-      <c r="K10" s="2">
-        <f t="shared" si="5"/>
+      <c r="K17" s="3">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <f t="shared" si="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <f t="shared" si="6"/>
         <v>44290</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B18" s="1">
         <v>0.1457</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C18" s="1">
         <v>0.1714</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D18" s="1">
         <v>0.13039999999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E18" s="1">
         <v>0.1366</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F18" s="1">
         <v>0.12239999999999999</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G18" s="1">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H18" s="1">
         <v>8.14E-2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I18" s="1">
         <v>0.1045</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" si="4"/>
+      <c r="J18" s="3">
+        <f t="shared" si="7"/>
         <v>44290</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" si="5"/>
+      <c r="K18" s="3">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f t="shared" si="3"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <f t="shared" si="6"/>
         <v>44289</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B19" s="1">
         <v>0.1474</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C19" s="1">
         <v>0.1714</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D19" s="1">
         <v>0.1295</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E19" s="1">
         <v>0.1363</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F19" s="1">
         <v>0.1216</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G19" s="1">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H19" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I19" s="1">
         <v>0.10150000000000001</v>
       </c>
-      <c r="J12" s="2">
-        <f>(J13+1)</f>
+      <c r="J19" s="3">
+        <f>(J20+1)</f>
         <v>44289</v>
       </c>
-      <c r="K12" s="2">
-        <f>(K13)+1</f>
+      <c r="K19" s="3">
+        <f>(K20)+1</f>
         <v>35</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f>A14+1</f>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <f>A21+1</f>
         <v>44288</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B20" s="1">
         <v>0.14549999999999999</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C20" s="1">
         <v>0.1714</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D20" s="1">
         <v>0.1196</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E20" s="1">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F20" s="1">
         <v>0.11849999999999999</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G20" s="1">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H20" s="1">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I20" s="1">
         <v>0.1011</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J20" s="3">
         <v>44288</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" ref="K13:K14" si="6">K14+1</f>
+      <c r="K20" s="3">
+        <f t="shared" ref="K20:K21" si="9">K21+1</f>
         <v>34</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <f>A15+1</f>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <f>A22+1</f>
         <v>44287</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B21" s="1">
         <v>0.1414</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C21" s="1">
         <v>0.1714</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D21" s="1">
         <v>0.1113</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E21" s="1">
         <v>0.12590000000000001</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F21" s="1">
         <v>0.1124</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G21" s="1">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H21" s="1">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I21" s="1">
         <v>9.5600000000000004E-2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J21" s="3">
         <v>44287</v>
       </c>
-      <c r="K14" s="2">
-        <f t="shared" si="6"/>
+      <c r="K21" s="3">
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <f>A16+1</f>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <f>A23+1</f>
         <v>44286</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B22" s="1">
         <v>0.1416</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C22" s="1">
         <v>0.1739</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D22" s="1">
         <v>0.1104</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E22" s="1">
         <v>0.1227</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F22" s="1">
         <v>0.11269999999999999</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G22" s="1">
         <v>6.54E-2</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H22" s="1">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I22" s="1">
         <v>9.4799999999999995E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J22" s="3">
         <v>44286</v>
       </c>
-      <c r="K15" s="2">
-        <f>K16+1</f>
+      <c r="K22" s="3">
+        <f>K23+1</f>
         <v>32</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>44285</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B23" s="1">
         <v>0.13980000000000001</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C23" s="1">
         <v>0.17649999999999999</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D23" s="1">
         <v>0.1091</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E23" s="1">
         <v>0.1207</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F23" s="1">
         <v>0.11020000000000001</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G23" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H23" s="1">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I23" s="1">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J23" s="3">
         <v>44285</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K23" s="3">
         <v>31</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>44284</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B24" s="1">
         <v>0.12959999999999999</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C24" s="1">
         <v>0.1618</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D24" s="1">
         <v>9.9299999999999999E-2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E24" s="1">
         <v>0.115</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F24" s="1">
         <v>9.9099999999999994E-2</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G24" s="1">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H24" s="1">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I24" s="1">
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J24" s="3">
         <v>44284</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K24" s="3">
         <v>30</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>44283</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B25" s="1">
         <v>0.1013</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C25" s="1">
         <v>0.1618</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D25" s="1">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E25" s="1">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F25" s="1">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G25" s="1">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H25" s="1">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I25" s="1">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J25" s="3">
         <v>44283</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K25" s="3">
         <v>29</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>44282</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B26" s="1">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C26" s="1">
         <v>0.1618</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D26" s="1">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E26" s="1">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F26" s="1">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G26" s="1">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H26" s="1">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I26" s="1">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J26" s="3">
         <v>44282</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K26" s="3">
         <v>28</v>
       </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>44281</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B27" s="1">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C27" s="1">
         <v>0.14710000000000001</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D27" s="1">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E27" s="1">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F27" s="1">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G27" s="1">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H27" s="1">
         <v>5.62E-2</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I27" s="1">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J27" s="3">
         <v>44281</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K27" s="3">
         <v>27</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>44280</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B28" s="1">
         <v>9.5500000000000002E-2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C28" s="1">
         <v>0.14929999999999999</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D28" s="1">
         <v>6.9400000000000003E-2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E28" s="1">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F28" s="1">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G28" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H28" s="1">
         <v>5.62E-2</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I28" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J28" s="3">
         <v>44280</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" ref="K21:K44" si="7">K22+1</f>
+      <c r="K28" s="3">
+        <f t="shared" ref="K28:K51" si="10">K29+1</f>
         <v>26</v>
       </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <f>A21-1</f>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <f>A28-1</f>
         <v>44279</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B29" s="1">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C29" s="1">
         <v>0.11940000000000001</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D29" s="1">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E29" s="1">
         <v>7.4899999999999994E-2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F29" s="1">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G29" s="1">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H29" s="1">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I29" s="1">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="J22" s="2">
-        <f>J21-1</f>
+      <c r="J29" s="3">
+        <f>J28-1</f>
         <v>44279</v>
       </c>
-      <c r="K22" s="2">
-        <f t="shared" si="7"/>
+      <c r="K29" s="3">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <f t="shared" ref="A23:A46" si="8">A22-1</f>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <f t="shared" ref="A30:A53" si="11">A29-1</f>
         <v>44278</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B30" s="1">
         <v>8.72E-2</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C30" s="1">
         <v>0.1045</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D30" s="1">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E30" s="1">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F30" s="1">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G30" s="1">
         <v>2.93E-2</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H30" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I30" s="1">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" ref="J23:J46" si="9">J22-1</f>
+      <c r="J30" s="3">
+        <f t="shared" ref="J30:J53" si="12">J29-1</f>
         <v>44278</v>
       </c>
-      <c r="K23" s="2">
-        <f t="shared" si="7"/>
+      <c r="K30" s="3">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <f t="shared" si="8"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <f t="shared" si="11"/>
         <v>44277</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B31" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C31" s="1">
         <v>0.1077</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D31" s="1">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E31" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F31" s="1">
         <v>6.54E-2</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G31" s="1">
         <v>2.93E-2</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H31" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I31" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="9"/>
+      <c r="J31" s="3">
+        <f t="shared" si="12"/>
         <v>44277</v>
       </c>
-      <c r="K24" s="2">
-        <f t="shared" si="7"/>
+      <c r="K31" s="3">
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <f t="shared" si="8"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <f t="shared" si="11"/>
         <v>44276</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B32" s="1">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C32" s="1">
         <v>0.1061</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D32" s="1">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E32" s="1">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F32" s="1">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G32" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H32" s="1">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I32" s="1">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="9"/>
+      <c r="J32" s="3">
+        <f t="shared" si="12"/>
         <v>44276</v>
       </c>
-      <c r="K25" s="2">
-        <f t="shared" si="7"/>
+      <c r="K32" s="3">
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <f t="shared" si="8"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <f t="shared" si="11"/>
         <v>44275</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B33" s="1">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C33" s="1">
         <v>0.1061</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D33" s="1">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E33" s="1">
         <v>5.33E-2</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F33" s="1">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G33" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H33" s="1">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I33" s="1">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="9"/>
+      <c r="J33" s="3">
+        <f t="shared" si="12"/>
         <v>44275</v>
       </c>
-      <c r="K26" s="2">
-        <f t="shared" si="7"/>
+      <c r="K33" s="3">
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <f t="shared" si="8"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <f t="shared" si="11"/>
         <v>44274</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B34" s="1">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C34" s="1">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D34" s="1">
         <v>5.16E-2</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E34" s="1">
         <v>4.82E-2</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F34" s="1">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G34" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H34" s="1">
         <v>3.09E-2</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I34" s="1">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="J27" s="2">
-        <f t="shared" si="9"/>
+      <c r="J34" s="3">
+        <f t="shared" si="12"/>
         <v>44274</v>
       </c>
-      <c r="K27" s="2">
-        <f t="shared" si="7"/>
+      <c r="K34" s="3">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <f t="shared" si="8"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <f t="shared" si="11"/>
         <v>44273</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B35" s="1">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C35" s="1">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D35" s="1">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E35" s="1">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F35" s="1">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G35" s="1">
         <v>1.49E-2</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H35" s="1">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I35" s="1">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="J28" s="2">
-        <f t="shared" si="9"/>
+      <c r="J35" s="3">
+        <f t="shared" si="12"/>
         <v>44273</v>
       </c>
-      <c r="K28" s="2">
-        <f t="shared" si="7"/>
+      <c r="K35" s="3">
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <f t="shared" si="8"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <f t="shared" si="11"/>
         <v>44272</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B36" s="1">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C36" s="1">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D36" s="1">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E36" s="1">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F36" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G36" s="1">
         <v>0.01</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H36" s="1">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I36" s="1">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="9"/>
+      <c r="J36" s="3">
+        <f t="shared" si="12"/>
         <v>44272</v>
       </c>
-      <c r="K29" s="2">
-        <f t="shared" si="7"/>
+      <c r="K36" s="3">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <f t="shared" si="8"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <f t="shared" si="11"/>
         <v>44271</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B37" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C37" s="1">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D37" s="1">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E37" s="1">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F37" s="1">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G37" s="1">
         <v>0.01</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H37" s="1">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I37" s="1">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="J30" s="2">
-        <f t="shared" si="9"/>
+      <c r="J37" s="3">
+        <f t="shared" si="12"/>
         <v>44271</v>
       </c>
-      <c r="K30" s="2">
-        <f t="shared" si="7"/>
+      <c r="K37" s="3">
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <f t="shared" si="8"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <f t="shared" si="11"/>
         <v>44270</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B38" s="1">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C38" s="1">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D38" s="1">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E38" s="1">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F38" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G38" s="1">
         <v>0.01</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H38" s="1">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I38" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J31" s="2">
-        <f t="shared" si="9"/>
+      <c r="J38" s="3">
+        <f t="shared" si="12"/>
         <v>44270</v>
       </c>
-      <c r="K31" s="2">
-        <f t="shared" si="7"/>
+      <c r="K38" s="3">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <f t="shared" si="8"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <f t="shared" si="11"/>
         <v>44269</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B39" s="1">
         <v>4.58E-2</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C39" s="1">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D39" s="1">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E39" s="1">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F39" s="1">
         <v>3.09E-2</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G39" s="1">
         <v>0.01</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H39" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I39" s="1">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" si="9"/>
+      <c r="J39" s="3">
+        <f t="shared" si="12"/>
         <v>44269</v>
       </c>
-      <c r="K32" s="2">
-        <f t="shared" si="7"/>
+      <c r="K39" s="3">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <f t="shared" si="8"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <f t="shared" si="11"/>
         <v>44268</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B40" s="1">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C40" s="1">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D40" s="1">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E40" s="1">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F40" s="1">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G40" s="1">
         <v>0.01</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H40" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I40" s="1">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J33" s="2">
-        <f t="shared" si="9"/>
+      <c r="J40" s="3">
+        <f t="shared" si="12"/>
         <v>44268</v>
       </c>
-      <c r="K33" s="2">
-        <f t="shared" si="7"/>
+      <c r="K40" s="3">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <f t="shared" si="8"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <f t="shared" si="11"/>
         <v>44267</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B41" s="1">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C41" s="1">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D41" s="1">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E41" s="1">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F41" s="1">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G41" s="1">
         <v>0.01</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H41" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I41" s="1">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="J34" s="2">
-        <f t="shared" si="9"/>
+      <c r="J41" s="3">
+        <f t="shared" si="12"/>
         <v>44267</v>
       </c>
-      <c r="K34" s="2">
-        <f t="shared" si="7"/>
+      <c r="K41" s="3">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <f t="shared" si="8"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <f t="shared" si="11"/>
         <v>44266</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B42" s="1">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C42" s="1">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D42" s="1">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E42" s="1">
         <v>3.44E-2</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F42" s="1">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G42" s="1">
         <v>0.01</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H42" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I42" s="1">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="J35" s="2">
-        <f t="shared" si="9"/>
+      <c r="J42" s="3">
+        <f t="shared" si="12"/>
         <v>44266</v>
       </c>
-      <c r="K35" s="2">
-        <f t="shared" si="7"/>
+      <c r="K42" s="3">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <f t="shared" si="8"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <f t="shared" si="11"/>
         <v>44265</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B43" s="1">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C43" s="1">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D43" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E43" s="1">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F43" s="1">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G43" s="1">
         <v>0.01</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H43" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I43" s="1">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="J36" s="2">
-        <f t="shared" si="9"/>
+      <c r="J43" s="3">
+        <f t="shared" si="12"/>
         <v>44265</v>
       </c>
-      <c r="K36" s="2">
-        <f t="shared" si="7"/>
+      <c r="K43" s="3">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <f t="shared" si="8"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <f t="shared" si="11"/>
         <v>44264</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B44" s="1">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C44" s="1">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D44" s="1">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E44" s="1">
         <v>3.09E-2</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F44" s="1">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G44" s="1">
         <v>1.01E-2</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H44" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I44" s="1">
         <v>2.76E-2</v>
       </c>
-      <c r="J37" s="2">
-        <f t="shared" si="9"/>
+      <c r="J44" s="3">
+        <f t="shared" si="12"/>
         <v>44264</v>
       </c>
-      <c r="K37" s="2">
-        <f t="shared" si="7"/>
+      <c r="K44" s="3">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <f t="shared" si="8"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <f t="shared" si="11"/>
         <v>44263</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B45" s="1">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C45" s="1">
         <v>3.39E-2</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D45" s="1">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E45" s="1">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F45" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G45" s="1">
         <v>0.01</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H45" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I45" s="1">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="J38" s="2">
-        <f t="shared" si="9"/>
+      <c r="J45" s="3">
+        <f t="shared" si="12"/>
         <v>44263</v>
       </c>
-      <c r="K38" s="2">
-        <f t="shared" si="7"/>
+      <c r="K45" s="3">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <f t="shared" si="8"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <f t="shared" si="11"/>
         <v>44262</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B46" s="1">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C46" s="1">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D46" s="1">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E46" s="1">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F46" s="1">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G46" s="1">
         <v>1.01E-2</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H46" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I46" s="1">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="J39" s="2">
-        <f t="shared" si="9"/>
+      <c r="J46" s="3">
+        <f t="shared" si="12"/>
         <v>44262</v>
       </c>
-      <c r="K39" s="2">
-        <f t="shared" si="7"/>
+      <c r="K46" s="3">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <f t="shared" si="8"/>
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <f t="shared" si="11"/>
         <v>44261</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B47" s="1">
         <v>2.81E-2</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C47" s="1">
         <v>1.72E-2</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D47" s="1">
         <v>1.77E-2</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E47" s="1">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F47" s="1">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G47" s="1">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H47" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I47" s="1">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="J40" s="2">
-        <f t="shared" si="9"/>
+      <c r="J47" s="3">
+        <f t="shared" si="12"/>
         <v>44261</v>
       </c>
-      <c r="K40" s="2">
-        <f t="shared" si="7"/>
+      <c r="K47" s="3">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <f t="shared" si="8"/>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <f t="shared" si="11"/>
         <v>44260</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B48" s="1">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C48" s="1">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D48" s="1">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E48" s="1">
         <v>0.02</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F48" s="1">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G48" s="1">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H48" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I48" s="1">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="J41" s="2">
-        <f t="shared" si="9"/>
+      <c r="J48" s="3">
+        <f t="shared" si="12"/>
         <v>44260</v>
       </c>
-      <c r="K41" s="2">
-        <f t="shared" si="7"/>
+      <c r="K48" s="3">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <f t="shared" si="8"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <f t="shared" si="11"/>
         <v>44259</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B49" s="1">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C49" s="1">
         <v>0</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D49" s="1">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E49" s="1">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F49" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G49" s="1">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H49" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I49" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="J42" s="2">
-        <f t="shared" si="9"/>
+      <c r="J49" s="3">
+        <f t="shared" si="12"/>
         <v>44259</v>
       </c>
-      <c r="K42" s="2">
-        <f t="shared" si="7"/>
+      <c r="K49" s="3">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <f t="shared" si="8"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <f t="shared" si="11"/>
         <v>44258</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B50" s="1">
         <v>2.35E-2</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C50" s="1">
         <v>0</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D50" s="1">
         <v>1.23E-2</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E50" s="1">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F50" s="1">
         <v>1.47E-2</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G50" s="1">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H50" s="1">
         <v>1.61E-2</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I50" s="1">
         <v>1.72E-2</v>
       </c>
-      <c r="J43" s="2">
-        <f t="shared" si="9"/>
+      <c r="J50" s="3">
+        <f t="shared" si="12"/>
         <v>44258</v>
       </c>
-      <c r="K43" s="2">
-        <f t="shared" si="7"/>
+      <c r="K50" s="3">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <f t="shared" si="8"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <f t="shared" si="11"/>
         <v>44257</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B51" s="1">
         <v>2.24E-2</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C51" s="1">
         <v>0</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D51" s="1">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E51" s="1">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F51" s="1">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G51" s="1">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H51" s="1">
         <v>1.61E-2</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I51" s="1">
         <v>1.72E-2</v>
       </c>
-      <c r="J44" s="2">
-        <f t="shared" si="9"/>
+      <c r="J51" s="3">
+        <f t="shared" si="12"/>
         <v>44257</v>
       </c>
-      <c r="K44" s="2">
-        <f t="shared" si="7"/>
+      <c r="K51" s="3">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <f t="shared" si="8"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <f t="shared" si="11"/>
         <v>44256</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B52" s="1">
         <v>2.07E-2</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C52" s="1">
         <v>0</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D52" s="1">
         <v>1.12E-2</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E52" s="1">
         <v>1.52E-2</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F52" s="1">
         <v>1.17E-2</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G52" s="1">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H52" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I52" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="J45" s="2">
-        <f t="shared" si="9"/>
+      <c r="J52" s="3">
+        <f t="shared" si="12"/>
         <v>44256</v>
       </c>
-      <c r="K45" s="2">
-        <f>K46+1</f>
+      <c r="K52" s="3">
+        <f>K53+1</f>
         <v>2</v>
       </c>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <f t="shared" si="8"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <f t="shared" si="11"/>
         <v>44255</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B53" s="1">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C53" s="1">
         <v>0</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D53" s="1">
         <v>1.14E-2</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E53" s="1">
         <v>1.49E-2</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F53" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G53" s="1">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H53" s="1">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I53" s="1">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J46" s="2">
-        <f t="shared" si="9"/>
+      <c r="J53" s="3">
+        <f t="shared" si="12"/>
         <v>44255</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K53" s="3">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="L52" t="s">
+      <c r="M53" s="7"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L59" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J53" s="2" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K53" s="2">
-        <f>J20+10</f>
+      <c r="K60" s="3">
+        <f>J27+10</f>
         <v>44291</v>
       </c>
     </row>
-    <row r="54" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J54" s="2" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="2">
-        <f>J20+20</f>
+      <c r="K61" s="3">
+        <f>J27+20</f>
         <v>44301</v>
       </c>
     </row>

--- a/durham_VOC_positivity.xlsx
+++ b/durham_VOC_positivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50140F-0F32-3A4E-B4C1-F72628E3056D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB17291B-A4A8-524B-81A9-75171D6FBC14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
+    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{A3E9D4E9-0A7D-E441-BA7C-A8F6E087B661}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,6 +146,7 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD76F85-D46A-004E-8298-45C4EF23387B}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,2031 +515,2306 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A8" si="0">A3+1</f>
-        <v>44306</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.29709999999999998</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.35510000000000003</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.29749999999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.2853</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.27029999999999998</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.26440000000000002</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.20169999999999999</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.26179999999999998</v>
+        <v>44313</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.39340000000000003</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.30690000000000001</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" ref="J2:J8" si="1">(J3+1)</f>
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K8" si="2">(K3)+1</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f t="shared" si="0"/>
-        <v>44305</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.28560000000000002</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.28470000000000001</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.27539999999999998</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.25540000000000002</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.26369999999999999</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.19939999999999999</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.25319999999999998</v>
+        <v>44312</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.33189999999999997</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.29110000000000003</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.24740000000000001</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.30869999999999997</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="1"/>
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
-        <v>44304</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.27050000000000002</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.32040000000000002</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.27239999999999998</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.2586</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.24970000000000001</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.2422</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.17849999999999999</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.24249999999999999</v>
+        <v>44311</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.3266</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.3049</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.2427</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.30309999999999998</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>44304</v>
+        <v>44311</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
-        <v>44303</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.31680000000000003</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.27339999999999998</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.25890000000000002</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.249</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.2447</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.18129999999999999</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.24149999999999999</v>
+        <v>44310</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.31790000000000002</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.39639999999999997</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.30459999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.2918</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.29709999999999998</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.29099999999999998</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>44303</v>
+        <v>44310</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
-        <v>44302</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.25919999999999999</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.27550000000000002</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.25540000000000002</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.2341</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.22339999999999999</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.22239999999999999</v>
+        <v>44309</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.318</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="G6" s="8">
+        <f>(G5+G7)/2</f>
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="H6" s="8">
+        <f>(H5+H7)/2</f>
+        <v>0.22299999999999998</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.28160000000000002</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
-        <v>44301</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.25979999999999998</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.27660000000000001</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.25159999999999999</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.24310000000000001</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.2344</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.2319</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.16569999999999999</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.22270000000000001</v>
+        <v>44308</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.30620000000000003</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.28389999999999999</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.27210000000000001</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
-        <v>44300</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.26150000000000001</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.27960000000000002</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.25290000000000001</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.2437</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.23710000000000001</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.16470000000000001</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.22320000000000001</v>
+        <v>44307</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.3004</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.3679</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.2777</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.26869999999999999</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>44300</v>
+        <v>44307</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A15" si="3">A10+1</f>
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="B9" s="1">
-        <v>0.25009999999999999</v>
+        <v>0.29709999999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>0.26369999999999999</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.2455</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.2344</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.21429999999999999</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.15290000000000001</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.21290000000000001</v>
+        <v>0.35510000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.2853</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.20169999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.26179999999999998</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" ref="J9:J15" si="4">(J10+1)</f>
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ref="K9:K15" si="5">(K10)+1</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="3"/>
-        <v>44298</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.2414</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.23080000000000001</v>
+        <v>44305</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.28560000000000002</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.33329999999999999</v>
       </c>
       <c r="D10" s="6">
-        <v>0.2334</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="E10" s="6">
-        <v>0.2283</v>
+        <v>0.27539999999999998</v>
       </c>
       <c r="F10" s="6">
-        <v>0.2218</v>
+        <v>0.25540000000000002</v>
       </c>
       <c r="G10" s="6">
-        <v>0.20680000000000001</v>
+        <v>0.26369999999999999</v>
       </c>
       <c r="H10" s="6">
-        <v>0.14979999999999999</v>
+        <v>0.19939999999999999</v>
       </c>
       <c r="I10" s="6">
-        <v>0.20200000000000001</v>
+        <v>0.25319999999999998</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="4"/>
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
-        <v>44297</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.2263</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.23080000000000001</v>
+        <v>44304</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.27050000000000002</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.32040000000000002</v>
       </c>
       <c r="D11" s="6">
-        <v>0.2142</v>
+        <v>0.27239999999999998</v>
       </c>
       <c r="E11" s="6">
-        <v>0.2152</v>
+        <v>0.2586</v>
       </c>
       <c r="F11" s="6">
-        <v>0.20699999999999999</v>
+        <v>0.24970000000000001</v>
       </c>
       <c r="G11" s="6">
-        <v>0.1875</v>
+        <v>0.2422</v>
       </c>
       <c r="H11" s="6">
-        <v>0.14460000000000001</v>
+        <v>0.17849999999999999</v>
       </c>
       <c r="I11" s="6">
-        <v>0.18160000000000001</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="4"/>
-        <v>44297</v>
+        <v>44304</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f t="shared" si="3"/>
-        <v>44296</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.20419999999999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.18679999999999999</v>
+        <v>44303</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.31680000000000003</v>
       </c>
       <c r="D12" s="6">
-        <v>0.18579999999999999</v>
+        <v>0.27339999999999998</v>
       </c>
       <c r="E12" s="6">
-        <v>0.1956</v>
+        <v>0.25890000000000002</v>
       </c>
       <c r="F12" s="6">
-        <v>0.1908</v>
+        <v>0.249</v>
       </c>
       <c r="G12" s="6">
-        <v>0.1719</v>
+        <v>0.2447</v>
       </c>
       <c r="H12" s="6">
-        <v>0.13539999999999999</v>
+        <v>0.18129999999999999</v>
       </c>
       <c r="I12" s="6">
-        <v>0.16109999999999999</v>
+        <v>0.24149999999999999</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="4"/>
-        <v>44296</v>
+        <v>44303</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f t="shared" si="3"/>
-        <v>44295</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.19570000000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.15479999999999999</v>
+        <v>44302</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.27550000000000002</v>
       </c>
       <c r="D13" s="6">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.2341</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="H13" s="6">
         <v>0.17</v>
       </c>
-      <c r="E13" s="6">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.17979999999999999</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.15140000000000001</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.1246</v>
-      </c>
       <c r="I13" s="6">
-        <v>0.14899999999999999</v>
+        <v>0.22239999999999999</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="4"/>
-        <v>44295</v>
+        <v>44302</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f t="shared" si="3"/>
-        <v>44294</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.19020000000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.16250000000000001</v>
+        <v>44301</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.25979999999999998</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.27660000000000001</v>
       </c>
       <c r="D14" s="6">
-        <v>0.16350000000000001</v>
+        <v>0.25159999999999999</v>
       </c>
       <c r="E14" s="6">
-        <v>0.1658</v>
+        <v>0.24310000000000001</v>
       </c>
       <c r="F14" s="6">
-        <v>0.1686</v>
+        <v>0.2344</v>
       </c>
       <c r="G14" s="6">
-        <v>0.13059999999999999</v>
+        <v>0.2319</v>
       </c>
       <c r="H14" s="6">
-        <v>0.11600000000000001</v>
+        <v>0.16569999999999999</v>
       </c>
       <c r="I14" s="6">
-        <v>0.14430000000000001</v>
+        <v>0.22270000000000001</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="4"/>
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <f t="shared" si="3"/>
-        <v>44293</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.18149999999999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.1711</v>
+        <v>44300</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.27960000000000002</v>
       </c>
       <c r="D15" s="6">
-        <v>0.1487</v>
+        <v>0.25290000000000001</v>
       </c>
       <c r="E15" s="6">
-        <v>0.1593</v>
+        <v>0.2437</v>
       </c>
       <c r="F15" s="6">
-        <v>0.1615</v>
+        <v>0.23710000000000001</v>
       </c>
       <c r="G15" s="6">
-        <v>0.1116</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="H15" s="6">
-        <v>9.9400000000000002E-2</v>
+        <v>0.16470000000000001</v>
       </c>
       <c r="I15" s="6">
-        <v>0.13600000000000001</v>
+        <v>0.22320000000000001</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="4"/>
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <f t="shared" ref="A16:A19" si="6">A17+1</f>
-        <v>44292</v>
+        <f t="shared" ref="A16:A22" si="6">A17+1</f>
+        <v>44299</v>
       </c>
       <c r="B16" s="1">
-        <v>0.1726</v>
+        <v>0.25009999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>0.17810000000000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.1429</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.15260000000000001</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="G16" s="1">
-        <v>9.3200000000000005E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>9.6299999999999997E-2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.12609999999999999</v>
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.2455</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.2344</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.21290000000000001</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16:J18" si="7">(J17+1)</f>
-        <v>44292</v>
+        <f t="shared" ref="J16:J22" si="7">(J17+1)</f>
+        <v>44299</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" ref="K16:K18" si="8">(K17)+1</f>
-        <v>38</v>
+        <f t="shared" ref="K16:K22" si="8">(K17)+1</f>
+        <v>45</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="6"/>
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B17" s="1">
-        <v>0.17249999999999999</v>
+        <v>0.2414</v>
       </c>
       <c r="C17" s="1">
-        <v>0.18310000000000001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>9.4799999999999995E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>9.7299999999999998E-2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.12640000000000001</v>
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.2334</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.2283</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.2218</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.20680000000000001</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.20200000000000001</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="7"/>
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="8"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <f t="shared" si="6"/>
-        <v>44290</v>
+        <v>44297</v>
       </c>
       <c r="B18" s="1">
-        <v>0.1457</v>
+        <v>0.2263</v>
       </c>
       <c r="C18" s="1">
-        <v>0.1714</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.1366</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="G18" s="1">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>8.14E-2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.1045</v>
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.2142</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.2152</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.18160000000000001</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="7"/>
-        <v>44290</v>
+        <v>44297</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="8"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <f t="shared" si="6"/>
-        <v>44289</v>
+        <v>44296</v>
       </c>
       <c r="B19" s="1">
-        <v>0.1474</v>
+        <v>0.20419999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>0.1714</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.1295</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.1363</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.1216</v>
-      </c>
-      <c r="G19" s="1">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.10150000000000001</v>
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.1956</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.1908</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.1719</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.16109999999999999</v>
       </c>
       <c r="J19" s="3">
-        <f>(J20+1)</f>
-        <v>44289</v>
+        <f t="shared" si="7"/>
+        <v>44296</v>
       </c>
       <c r="K19" s="3">
-        <f>(K20)+1</f>
-        <v>35</v>
+        <f t="shared" si="8"/>
+        <v>42</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <f>A21+1</f>
-        <v>44288</v>
+        <f t="shared" si="6"/>
+        <v>44295</v>
       </c>
       <c r="B20" s="1">
-        <v>0.14549999999999999</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>0.1714</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.1196</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.11849999999999999</v>
-      </c>
-      <c r="G20" s="1">
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.1011</v>
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.17979999999999999</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.1246</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.14899999999999999</v>
       </c>
       <c r="J20" s="3">
-        <v>44288</v>
+        <f t="shared" si="7"/>
+        <v>44295</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:K21" si="9">K21+1</f>
-        <v>34</v>
+        <f t="shared" si="8"/>
+        <v>41</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <f>A22+1</f>
-        <v>44287</v>
+        <f t="shared" si="6"/>
+        <v>44294</v>
       </c>
       <c r="B21" s="1">
-        <v>0.1414</v>
+        <v>0.19020000000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>0.1714</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.1113</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.12590000000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.1124</v>
-      </c>
-      <c r="G21" s="1">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>9.5600000000000004E-2</v>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.1658</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.1686</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.13059999999999999</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.14430000000000001</v>
       </c>
       <c r="J21" s="3">
-        <v>44287</v>
+        <f t="shared" si="7"/>
+        <v>44294</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="9"/>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <f>A23+1</f>
-        <v>44286</v>
+        <f t="shared" si="6"/>
+        <v>44293</v>
       </c>
       <c r="B22" s="1">
-        <v>0.1416</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>0.1739</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.1104</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.1227</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.11269999999999999</v>
-      </c>
-      <c r="G22" s="1">
-        <v>6.54E-2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="I22" s="1">
-        <v>9.4799999999999995E-2</v>
+        <v>0.1711</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.1487</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.1593</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.1615</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.1116</v>
+      </c>
+      <c r="H22" s="6">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.13600000000000001</v>
       </c>
       <c r="J22" s="3">
-        <v>44286</v>
+        <f t="shared" si="7"/>
+        <v>44293</v>
       </c>
       <c r="K22" s="3">
-        <f>K23+1</f>
-        <v>32</v>
+        <f t="shared" si="8"/>
+        <v>39</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>44285</v>
+        <f t="shared" ref="A23:A26" si="9">A24+1</f>
+        <v>44292</v>
       </c>
       <c r="B23" s="1">
-        <v>0.13980000000000001</v>
+        <v>0.1726</v>
       </c>
       <c r="C23" s="1">
-        <v>0.17649999999999999</v>
+        <v>0.17810000000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1091</v>
+        <v>0.1429</v>
       </c>
       <c r="E23" s="1">
-        <v>0.1207</v>
+        <v>0.15260000000000001</v>
       </c>
       <c r="F23" s="1">
-        <v>0.11020000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>9.3200000000000005E-2</v>
       </c>
       <c r="H23" s="1">
-        <v>6.8599999999999994E-2</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="I23" s="1">
-        <v>9.4100000000000003E-2</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="J23" s="3">
-        <v>44285</v>
+        <f t="shared" ref="J23:J25" si="10">(J24+1)</f>
+        <v>44292</v>
       </c>
       <c r="K23" s="3">
-        <v>31</v>
+        <f t="shared" ref="K23:K25" si="11">(K24)+1</f>
+        <v>38</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>44284</v>
+        <f t="shared" si="9"/>
+        <v>44291</v>
       </c>
       <c r="B24" s="1">
-        <v>0.12959999999999999</v>
+        <v>0.17249999999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>0.1618</v>
+        <v>0.18310000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>9.9299999999999999E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.115</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="F24" s="1">
-        <v>9.9099999999999994E-2</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="G24" s="1">
-        <v>5.6599999999999998E-2</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="H24" s="1">
-        <v>5.8200000000000002E-2</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="I24" s="1">
-        <v>8.9200000000000002E-2</v>
+        <v>0.12640000000000001</v>
       </c>
       <c r="J24" s="3">
-        <v>44284</v>
+        <f t="shared" si="10"/>
+        <v>44291</v>
       </c>
       <c r="K24" s="3">
-        <v>30</v>
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>44283</v>
+        <f t="shared" si="9"/>
+        <v>44290</v>
       </c>
       <c r="B25" s="1">
-        <v>0.1013</v>
+        <v>0.1457</v>
       </c>
       <c r="C25" s="1">
-        <v>0.1618</v>
+        <v>0.1714</v>
       </c>
       <c r="D25" s="1">
-        <v>7.4200000000000002E-2</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>8.8200000000000001E-2</v>
+        <v>0.1366</v>
       </c>
       <c r="F25" s="1">
-        <v>7.8899999999999998E-2</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="G25" s="1">
-        <v>3.7900000000000003E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="H25" s="1">
-        <v>5.9299999999999999E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="I25" s="1">
-        <v>7.0699999999999999E-2</v>
+        <v>0.1045</v>
       </c>
       <c r="J25" s="3">
-        <v>44283</v>
+        <f t="shared" si="10"/>
+        <v>44290</v>
       </c>
       <c r="K25" s="3">
-        <v>29</v>
+        <f t="shared" si="11"/>
+        <v>36</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>44282</v>
+        <f t="shared" si="9"/>
+        <v>44289</v>
       </c>
       <c r="B26" s="1">
-        <v>9.7500000000000003E-2</v>
+        <v>0.1474</v>
       </c>
       <c r="C26" s="1">
-        <v>0.1618</v>
+        <v>0.1714</v>
       </c>
       <c r="D26" s="1">
-        <v>7.0099999999999996E-2</v>
+        <v>0.1295</v>
       </c>
       <c r="E26" s="1">
-        <v>8.6699999999999999E-2</v>
+        <v>0.1363</v>
       </c>
       <c r="F26" s="1">
-        <v>7.3800000000000004E-2</v>
+        <v>0.1216</v>
       </c>
       <c r="G26" s="1">
-        <v>3.7900000000000003E-2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="H26" s="1">
-        <v>5.5599999999999997E-2</v>
+        <v>7.8799999999999995E-2</v>
       </c>
       <c r="I26" s="1">
-        <v>6.6100000000000006E-2</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="J26" s="3">
-        <v>44282</v>
+        <f>(J27+1)</f>
+        <v>44289</v>
       </c>
       <c r="K26" s="3">
-        <v>28</v>
+        <f>(K27)+1</f>
+        <v>35</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>44281</v>
+        <f>A28+1</f>
+        <v>44288</v>
       </c>
       <c r="B27" s="1">
-        <v>9.8799999999999999E-2</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>0.14710000000000001</v>
+        <v>0.1714</v>
       </c>
       <c r="D27" s="1">
-        <v>7.0900000000000005E-2</v>
+        <v>0.1196</v>
       </c>
       <c r="E27" s="1">
-        <v>8.4900000000000003E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F27" s="1">
-        <v>7.5499999999999998E-2</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="G27" s="1">
-        <v>3.3700000000000001E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="H27" s="1">
-        <v>5.62E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>6.8199999999999997E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="J27" s="3">
-        <v>44281</v>
+        <v>44288</v>
       </c>
       <c r="K27" s="3">
-        <v>27</v>
+        <f t="shared" ref="K27:K28" si="12">K28+1</f>
+        <v>34</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>44280</v>
+        <f>A29+1</f>
+        <v>44287</v>
       </c>
       <c r="B28" s="1">
-        <v>9.5500000000000002E-2</v>
+        <v>0.1414</v>
       </c>
       <c r="C28" s="1">
-        <v>0.14929999999999999</v>
+        <v>0.1714</v>
       </c>
       <c r="D28" s="1">
-        <v>6.9400000000000003E-2</v>
+        <v>0.1113</v>
       </c>
       <c r="E28" s="1">
-        <v>8.2600000000000007E-2</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="F28" s="1">
-        <v>7.3300000000000004E-2</v>
+        <v>0.1124</v>
       </c>
       <c r="G28" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="H28" s="1">
-        <v>5.62E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="J28" s="3">
-        <v>44280</v>
+        <v>44287</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" ref="K28:K51" si="10">K29+1</f>
-        <v>26</v>
-      </c>
-      <c r="M28" s="7"/>
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <f>A28-1</f>
-        <v>44279</v>
+        <f>A30+1</f>
+        <v>44286</v>
       </c>
       <c r="B29" s="1">
-        <v>8.9700000000000002E-2</v>
+        <v>0.1416</v>
       </c>
       <c r="C29" s="1">
-        <v>0.11940000000000001</v>
+        <v>0.1739</v>
       </c>
       <c r="D29" s="1">
-        <v>6.5100000000000005E-2</v>
+        <v>0.1104</v>
       </c>
       <c r="E29" s="1">
-        <v>7.4899999999999994E-2</v>
+        <v>0.1227</v>
       </c>
       <c r="F29" s="1">
-        <v>6.8099999999999994E-2</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="G29" s="1">
-        <v>2.9100000000000001E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="H29" s="1">
-        <v>5.2600000000000001E-2</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>6.0400000000000002E-2</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="J29" s="3">
-        <f>J28-1</f>
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="M29" s="7"/>
+        <f>K30+1</f>
+        <v>32</v>
+      </c>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <f t="shared" ref="A30:A53" si="11">A29-1</f>
-        <v>44278</v>
+        <v>44285</v>
       </c>
       <c r="B30" s="1">
-        <v>8.72E-2</v>
+        <v>0.13980000000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>0.1045</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>6.3399999999999998E-2</v>
+        <v>0.1091</v>
       </c>
       <c r="E30" s="1">
-        <v>6.9699999999999998E-2</v>
+        <v>0.1207</v>
       </c>
       <c r="F30" s="1">
-        <v>6.6100000000000006E-2</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="G30" s="1">
-        <v>2.93E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H30" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>5.9200000000000003E-2</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:J53" si="12">J29-1</f>
-        <v>44278</v>
+        <v>44285</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="M30" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <f t="shared" si="11"/>
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B31" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>0.1077</v>
+        <v>0.1618</v>
       </c>
       <c r="D31" s="1">
-        <v>6.2899999999999998E-2</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>0.115</v>
       </c>
       <c r="F31" s="1">
-        <v>6.54E-2</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="G31" s="1">
-        <v>2.93E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="H31" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="12"/>
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="10"/>
-        <v>23</v>
-      </c>
-      <c r="M31" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <f t="shared" si="11"/>
-        <v>44276</v>
+        <v>44283</v>
       </c>
       <c r="B32" s="1">
-        <v>6.9599999999999995E-2</v>
+        <v>0.1013</v>
       </c>
       <c r="C32" s="1">
-        <v>0.1061</v>
+        <v>0.1618</v>
       </c>
       <c r="D32" s="1">
-        <v>5.5300000000000002E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="E32" s="1">
-        <v>5.4100000000000002E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>5.3800000000000001E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="G32" s="1">
-        <v>1.95E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H32" s="1">
-        <v>3.4099999999999998E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>4.9799999999999997E-2</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="12"/>
-        <v>44276</v>
+        <v>44283</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="M32" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <f t="shared" si="11"/>
-        <v>44275</v>
+        <v>44282</v>
       </c>
       <c r="B33" s="1">
-        <v>6.6400000000000001E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="C33" s="1">
-        <v>0.1061</v>
+        <v>0.1618</v>
       </c>
       <c r="D33" s="1">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H33" s="1">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="E33" s="1">
-        <v>5.33E-2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1.95E-2</v>
-      </c>
-      <c r="H33" s="1">
-        <v>3.4200000000000001E-2</v>
-      </c>
       <c r="I33" s="1">
-        <v>4.9200000000000001E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="12"/>
-        <v>44275</v>
+        <v>44282</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="M33" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <f t="shared" si="11"/>
-        <v>44274</v>
+        <v>44281</v>
       </c>
       <c r="B34" s="1">
-        <v>6.3799999999999996E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="C34" s="1">
-        <v>9.2299999999999993E-2</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="D34" s="1">
-        <v>5.16E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="E34" s="1">
-        <v>4.82E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>4.7899999999999998E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>1.95E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="H34" s="1">
-        <v>3.09E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>4.6800000000000001E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="12"/>
-        <v>44274</v>
+        <v>44281</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="M34" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <f t="shared" si="11"/>
-        <v>44273</v>
+        <v>44280</v>
       </c>
       <c r="B35" s="1">
-        <v>5.7700000000000001E-2</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="C35" s="1">
-        <v>7.9399999999999998E-2</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="D35" s="1">
-        <v>4.8899999999999999E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="E35" s="1">
-        <v>4.5600000000000002E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="F35" s="1">
-        <v>4.4900000000000002E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>1.49E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H35" s="1">
-        <v>2.7199999999999998E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="I35" s="1">
-        <v>4.3700000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="12"/>
-        <v>44273</v>
+        <v>44280</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f t="shared" ref="K35:K58" si="13">K36+1</f>
+        <v>26</v>
       </c>
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <f t="shared" si="11"/>
-        <v>44272</v>
+        <f>A35-1</f>
+        <v>44279</v>
       </c>
       <c r="B36" s="1">
-        <v>5.4399999999999997E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="C36" s="1">
-        <v>6.5600000000000006E-2</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="D36" s="1">
-        <v>4.1099999999999998E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="E36" s="1">
-        <v>4.3499999999999997E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="F36" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>6.8099999999999994E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>0.01</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="H36" s="1">
-        <v>1.9599999999999999E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>3.9399999999999998E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="12"/>
-        <v>44272</v>
+        <f>J35-1</f>
+        <v>44279</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="10"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>25</v>
       </c>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <f t="shared" si="11"/>
-        <v>44271</v>
+        <f t="shared" ref="A37:A60" si="14">A36-1</f>
+        <v>44278</v>
       </c>
       <c r="B37" s="1">
+        <v>8.72E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.1045</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2.93E-2</v>
+      </c>
+      <c r="H37" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C37" s="1">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1.5699999999999999E-2</v>
-      </c>
       <c r="I37" s="1">
-        <v>3.8699999999999998E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="12"/>
-        <v>44271</v>
+        <f t="shared" ref="J37:J60" si="15">J36-1</f>
+        <v>44278</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>24</v>
       </c>
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <f t="shared" si="11"/>
-        <v>44270</v>
+        <f t="shared" si="14"/>
+        <v>44277</v>
       </c>
       <c r="B38" s="1">
-        <v>4.9299999999999997E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C38" s="1">
-        <v>6.6699999999999995E-2</v>
+        <v>0.1077</v>
       </c>
       <c r="D38" s="1">
-        <v>3.7400000000000003E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="E38" s="1">
-        <v>4.0300000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F38" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.01</v>
+        <v>2.93E-2</v>
       </c>
       <c r="H38" s="1">
-        <v>1.5800000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I38" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="12"/>
-        <v>44270</v>
+        <f t="shared" si="15"/>
+        <v>44277</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>23</v>
       </c>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <f t="shared" si="11"/>
-        <v>44269</v>
+        <f t="shared" si="14"/>
+        <v>44276</v>
       </c>
       <c r="B39" s="1">
-        <v>4.58E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="C39" s="1">
-        <v>6.6699999999999995E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D39" s="1">
-        <v>3.3300000000000003E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="E39" s="1">
-        <v>3.7600000000000001E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="F39" s="1">
-        <v>3.09E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H39" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="I39" s="1">
-        <v>3.4700000000000002E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="12"/>
-        <v>44269</v>
+        <f t="shared" si="15"/>
+        <v>44276</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <f t="shared" si="11"/>
-        <v>44268</v>
+        <f t="shared" si="14"/>
+        <v>44275</v>
       </c>
       <c r="B40" s="1">
-        <v>4.2900000000000001E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="C40" s="1">
-        <v>5.0799999999999998E-2</v>
+        <v>0.1061</v>
       </c>
       <c r="D40" s="1">
-        <v>3.2399999999999998E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="E40" s="1">
-        <v>3.6200000000000003E-2</v>
+        <v>5.33E-2</v>
       </c>
       <c r="F40" s="1">
-        <v>2.8500000000000001E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H40" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="I40" s="1">
-        <v>3.2500000000000001E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="12"/>
-        <v>44268</v>
+        <f t="shared" si="15"/>
+        <v>44275</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <f t="shared" si="11"/>
-        <v>44267</v>
+        <f t="shared" si="14"/>
+        <v>44274</v>
       </c>
       <c r="B41" s="1">
-        <v>4.2099999999999999E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="C41" s="1">
-        <v>5.0799999999999998E-2</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="D41" s="1">
-        <v>3.1300000000000001E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="E41" s="1">
-        <v>3.6299999999999999E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="F41" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.01</v>
+        <v>1.95E-2</v>
       </c>
       <c r="H41" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="I41" s="1">
-        <v>3.0700000000000002E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="12"/>
-        <v>44267</v>
+        <f t="shared" si="15"/>
+        <v>44274</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" si="13"/>
+        <v>20</v>
       </c>
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <f t="shared" si="11"/>
-        <v>44266</v>
+        <f t="shared" si="14"/>
+        <v>44273</v>
       </c>
       <c r="B42" s="1">
-        <v>3.8899999999999997E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="C42" s="1">
-        <v>5.0799999999999998E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>2.8199999999999999E-2</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E42" s="1">
-        <v>3.44E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="F42" s="1">
-        <v>2.5399999999999999E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>0.01</v>
+        <v>1.49E-2</v>
       </c>
       <c r="H42" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="I42" s="1">
-        <v>2.9399999999999999E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="12"/>
-        <v>44266</v>
+        <f t="shared" si="15"/>
+        <v>44273</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
       <c r="M42" s="7"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <f t="shared" si="11"/>
-        <v>44265</v>
+        <f t="shared" si="14"/>
+        <v>44272</v>
       </c>
       <c r="B43" s="1">
-        <v>3.5400000000000001E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="C43" s="1">
-        <v>5.0799999999999998E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D43" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E43" s="1">
-        <v>3.1699999999999999E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F43" s="1">
-        <v>2.4799999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G43" s="1">
         <v>0.01</v>
       </c>
       <c r="H43" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="I43" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="12"/>
-        <v>44265</v>
+        <f t="shared" si="15"/>
+        <v>44272</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="M43" s="7"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <f t="shared" si="11"/>
-        <v>44264</v>
+        <f t="shared" si="14"/>
+        <v>44271</v>
       </c>
       <c r="B44" s="1">
-        <v>3.4500000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C44" s="1">
-        <v>5.0799999999999998E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="D44" s="1">
-        <v>2.5100000000000001E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="E44" s="1">
-        <v>3.09E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="F44" s="1">
-        <v>2.3699999999999999E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H44" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="I44" s="1">
-        <v>2.76E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="12"/>
-        <v>44264</v>
+        <f t="shared" si="15"/>
+        <v>44271</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>17</v>
       </c>
       <c r="M44" s="7"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <f t="shared" si="11"/>
-        <v>44263</v>
+        <f t="shared" si="14"/>
+        <v>44270</v>
       </c>
       <c r="B45" s="1">
-        <v>3.1699999999999999E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="C45" s="1">
-        <v>3.39E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D45" s="1">
-        <v>1.9699999999999999E-2</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="E45" s="1">
-        <v>2.9399999999999999E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="F45" s="1">
-        <v>2.3E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G45" s="1">
         <v>0.01</v>
       </c>
       <c r="H45" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="I45" s="1">
-        <v>2.5399999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="12"/>
-        <v>44263</v>
+        <f t="shared" si="15"/>
+        <v>44270</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <f t="shared" si="11"/>
-        <v>44262</v>
+        <f t="shared" si="14"/>
+        <v>44269</v>
       </c>
       <c r="B46" s="1">
-        <v>2.8199999999999999E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="C46" s="1">
-        <v>1.6899999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>1.8800000000000001E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="E46" s="1">
-        <v>2.6599999999999999E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="F46" s="1">
-        <v>2.1499999999999998E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>1.01E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H46" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I46" s="1">
-        <v>2.4400000000000002E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="12"/>
-        <v>44262</v>
+        <f t="shared" si="15"/>
+        <v>44269</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="M46" s="7"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <f t="shared" si="11"/>
-        <v>44261</v>
+        <f t="shared" si="14"/>
+        <v>44268</v>
       </c>
       <c r="B47" s="1">
-        <v>2.81E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="C47" s="1">
-        <v>1.72E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>1.77E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="E47" s="1">
-        <v>2.2700000000000001E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="F47" s="1">
-        <v>2.0199999999999999E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="G47" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H47" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="I47" s="1">
-        <v>2.4199999999999999E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="12"/>
-        <v>44261</v>
+        <f t="shared" si="15"/>
+        <v>44268</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
       <c r="M47" s="7"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <f t="shared" si="11"/>
-        <v>44260</v>
+        <f t="shared" si="14"/>
+        <v>44267</v>
       </c>
       <c r="B48" s="1">
-        <v>2.6700000000000002E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="C48" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D48" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="F48" s="1">
-        <v>1.9800000000000002E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G48" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H48" s="1">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I48" s="1">
-        <v>2.1899999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="12"/>
-        <v>44260</v>
+        <f t="shared" si="15"/>
+        <v>44267</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="M48" s="7"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <f t="shared" si="11"/>
-        <v>44259</v>
+        <f t="shared" si="14"/>
+        <v>44266</v>
       </c>
       <c r="B49" s="1">
-        <v>2.4199999999999999E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D49" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="E49" s="1">
-        <v>1.9599999999999999E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="F49" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H49" s="1">
-        <v>1.6E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I49" s="1">
-        <v>1.95E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="12"/>
-        <v>44259</v>
+        <f t="shared" si="15"/>
+        <v>44266</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="M49" s="7"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <f t="shared" si="11"/>
-        <v>44258</v>
+        <f t="shared" si="14"/>
+        <v>44265</v>
       </c>
       <c r="B50" s="1">
-        <v>2.35E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D50" s="1">
-        <v>1.23E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E50" s="1">
-        <v>1.7600000000000001E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F50" s="1">
-        <v>1.47E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H50" s="1">
-        <v>1.61E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I50" s="1">
-        <v>1.72E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="12"/>
-        <v>44258</v>
+        <f t="shared" si="15"/>
+        <v>44265</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <f t="shared" si="11"/>
-        <v>44257</v>
+        <f t="shared" si="14"/>
+        <v>44264</v>
       </c>
       <c r="B51" s="1">
-        <v>2.24E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="D51" s="1">
-        <v>1.1299999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="E51" s="1">
-        <v>1.6500000000000001E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="F51" s="1">
-        <v>1.2800000000000001E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="G51" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="H51" s="1">
-        <v>1.61E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I51" s="1">
-        <v>1.72E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="12"/>
-        <v>44257</v>
+        <f t="shared" si="15"/>
+        <v>44264</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="M51" s="7"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <f t="shared" si="11"/>
-        <v>44256</v>
+        <f t="shared" si="14"/>
+        <v>44263</v>
       </c>
       <c r="B52" s="1">
-        <v>2.07E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>3.39E-2</v>
       </c>
       <c r="D52" s="1">
-        <v>1.12E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="E52" s="1">
-        <v>1.52E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F52" s="1">
-        <v>1.17E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G52" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H52" s="1">
-        <v>8.0999999999999996E-3</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="I52" s="1">
-        <v>1.6799999999999999E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="12"/>
-        <v>44256</v>
+        <f t="shared" si="15"/>
+        <v>44263</v>
       </c>
       <c r="K52" s="3">
-        <f>K53+1</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="M52" s="7"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>44262</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.01E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="15"/>
+        <v>44262</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <f t="shared" si="14"/>
+        <v>44261</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2.81E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.77E-2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="15"/>
+        <v>44261</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <f t="shared" si="14"/>
+        <v>44260</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="15"/>
+        <v>44260</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <f t="shared" si="14"/>
+        <v>44259</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1.95E-2</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="15"/>
+        <v>44259</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <f t="shared" si="14"/>
+        <v>44258</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2.35E-2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="15"/>
+        <v>44258</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <f t="shared" si="14"/>
+        <v>44257</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="15"/>
+        <v>44257</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <f t="shared" si="14"/>
+        <v>44256</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2.07E-2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1.52E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1.17E-2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="15"/>
+        <v>44256</v>
+      </c>
+      <c r="K59" s="3">
+        <f>K60+1</f>
+        <v>2</v>
+      </c>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <f t="shared" si="14"/>
         <v>44255</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B60" s="1">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C60" s="1">
         <v>0</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D60" s="1">
         <v>1.14E-2</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E60" s="1">
         <v>1.49E-2</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F60" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G60" s="1">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H60" s="1">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I60" s="1">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="J53" s="3">
-        <f t="shared" si="12"/>
+      <c r="J60" s="3">
+        <f t="shared" si="15"/>
         <v>44255</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K60" s="3">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M53" s="7"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L59" s="2" t="s">
+      <c r="M60" s="7"/>
+    </row>
+    <row r="66" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J60" s="3" t="s">
+    <row r="67" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K60" s="3">
-        <f>J27+10</f>
+      <c r="K67" s="3">
+        <f>J34+10</f>
         <v>44291</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J61" s="3" t="s">
+    <row r="68" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="3">
-        <f>J27+20</f>
+      <c r="K68" s="3">
+        <f>J34+20</f>
         <v>44301</v>
       </c>
     </row>
